--- a/PythonResources/Data/Consumption/Sympheny/futu_1691_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1691_coo.xlsx
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5690032829817752</v>
+        <v>0.569003282981775</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.2533502415784572</v>
+        <v>0.2533502415784571</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.4877112382778912</v>
+        <v>0.4877112382778911</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.3563685215914227</v>
+        <v>0.3563685215914226</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.3008403518962576</v>
+        <v>0.3008403518962575</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.7058821115885565</v>
+        <v>0.7058821115885564</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>0.5919683295712782</v>
+        <v>0.5919683295712781</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>0.5411527421777875</v>
+        <v>0.5411527421777874</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>0.4491401588796715</v>
+        <v>0.4491401588796714</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>0.1769161424114237</v>
+        <v>0.1769161424114236</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2255,7 +2255,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>0.3853913465500557</v>
+        <v>0.3853913465500556</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>0.80188632243324</v>
+        <v>0.8018863224332399</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>0.6282856926821921</v>
+        <v>0.628285692682192</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>3.264020078883001</v>
+        <v>3.264020078883</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>0.9180626128689838</v>
+        <v>0.9180626128689836</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>0.6208094504859412</v>
+        <v>0.6208094504859411</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>0.4564581427150453</v>
+        <v>0.4564581427150452</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>0.3479192835468161</v>
+        <v>0.347919283546816</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>0.8350473104577713</v>
+        <v>0.8350473104577711</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>0.1870165426878483</v>
+        <v>0.1870165426878482</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>4.692565549733863</v>
+        <v>4.692565549733862</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>0.7950987971778432</v>
+        <v>0.795098797177843</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>3.886092665545573</v>
+        <v>3.886092665545572</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>0.4740570585866591</v>
+        <v>0.474057058586659</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>0.3157254299498673</v>
+        <v>0.3157254299498672</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>0.7456547822452877</v>
+        <v>0.7456547822452876</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>0.4186256023342523</v>
+        <v>0.4186256023342522</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>0.1412074878478094</v>
+        <v>0.1412074878478093</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>0.1317917015176977</v>
+        <v>0.1317917015176976</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>0.1494322334768014</v>
+        <v>0.1494322334768013</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>0.4575102677438395</v>
+        <v>0.4575102677438394</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>0.2462983662461879</v>
+        <v>0.2462983662461878</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>0.7662664683943401</v>
+        <v>0.76626646839434</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>575</v>
       </c>
       <c r="B575">
-        <v>0.6888107235865332</v>
+        <v>0.6888107235865331</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4959,7 +4959,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>0.3662919069604958</v>
+        <v>0.3662919069604957</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>0.5114031010432744</v>
+        <v>0.5114031010432742</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>0.3142835204396535</v>
+        <v>0.3142835204396534</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>0.4756484343265902</v>
+        <v>0.4756484343265901</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>0.6938661990034414</v>
+        <v>0.6938661990034413</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>0.6976350925606262</v>
+        <v>0.6976350925606261</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -6023,7 +6023,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>0.5669224786072796</v>
+        <v>0.5669224786072795</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>2.513506178816709</v>
+        <v>2.513506178816708</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>8.597942289623353</v>
+        <v>8.597942289623351</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>0.8914927925039463</v>
+        <v>0.8914927925039462</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>745</v>
       </c>
       <c r="B745">
-        <v>0.5993156205105181</v>
+        <v>0.599315620510518</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>0.3441269443065383</v>
+        <v>0.3441269443065382</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>0.7020282274301598</v>
+        <v>0.7020282274301597</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6663,7 +6663,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>0.6746378081568705</v>
+        <v>0.6746378081568704</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>0.2653362609176289</v>
+        <v>0.2653362609176288</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>0.1368638819838096</v>
+        <v>0.1368638819838095</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>0.3064057709204365</v>
+        <v>0.3064057709204364</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>6.267675847019263</v>
+        <v>6.267675847019262</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7295,7 +7295,7 @@
         <v>869</v>
       </c>
       <c r="B869">
-        <v>0.5055856409258467</v>
+        <v>0.5055856409258466</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>3.918682165044713</v>
+        <v>3.918682165044714</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>6.509107768668479</v>
+        <v>6.509107768668478</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>0.4213804700976689</v>
+        <v>0.4213804700976688</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>908</v>
       </c>
       <c r="B908">
-        <v>0.589755643229385</v>
+        <v>0.5897556432293849</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>0.2608461195342984</v>
+        <v>0.2608461195342983</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>0.2442034944618366</v>
+        <v>0.2442034944618365</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>0.7149497295247386</v>
+        <v>0.7149497295247385</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>944</v>
       </c>
       <c r="B944">
-        <v>0.1872592055078599</v>
+        <v>0.1872592055078598</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>0.5726490867027223</v>
+        <v>0.5726490867027222</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>0.2033930592572056</v>
+        <v>0.2033930592572055</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>0.4625540203192013</v>
+        <v>0.4625540203192012</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>1007</v>
       </c>
       <c r="B1007">
-        <v>0.2639561893965726</v>
+        <v>0.2639561893965725</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>0.1112450771392281</v>
+        <v>0.111245077139228</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>0.3311409665834541</v>
+        <v>0.331140966583454</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>0.7960512780534925</v>
+        <v>0.7960512780534924</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>0.6697230068385197</v>
+        <v>0.6697230068385196</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>0.5046243679190374</v>
+        <v>0.5046243679190373</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>0.3514156210380459</v>
+        <v>0.3514156210380458</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>0.367071475923335</v>
+        <v>0.3670714759233349</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>1.74497134058313</v>
+        <v>1.744971340583129</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>1.424178712374808</v>
+        <v>1.424178712374807</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>2.724446989603599</v>
+        <v>2.724446989603598</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -8991,7 +8991,7 @@
         <v>1081</v>
       </c>
       <c r="B1081">
-        <v>0.6286491007701321</v>
+        <v>0.628649100770132</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>0.2964003256605382</v>
+        <v>0.2964003256605381</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>0.3143743724616385</v>
+        <v>0.3143743724616384</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>3.609169841114468</v>
+        <v>3.609169841114467</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>0.5512842079843102</v>
+        <v>0.5512842079843101</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>0.5641588187127031</v>
+        <v>0.564158818712703</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>0.8265013589704063</v>
+        <v>0.8265013589704062</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>0.3108399357353827</v>
+        <v>0.3108399357353826</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>1134</v>
       </c>
       <c r="B1134">
-        <v>0.2942667684990836</v>
+        <v>0.2942667684990835</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>0.3929291336644255</v>
+        <v>0.3929291336644254</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>3.096442058976444</v>
+        <v>3.096442058976443</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>2.834934771178926</v>
+        <v>2.834934771178925</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>0.3700842462007736</v>
+        <v>0.3700842462007735</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>0.2112001786561052</v>
+        <v>0.2112001786561051</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>1247</v>
       </c>
       <c r="B1247">
-        <v>0.6835383756010155</v>
+        <v>0.6835383756010154</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>1249</v>
       </c>
       <c r="B1249">
-        <v>0.375661388066499</v>
+        <v>0.3756613880664989</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>0.07113215100661111</v>
+        <v>0.07113215100661099</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>0.536349307854128</v>
+        <v>0.5363493078541279</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>0.2624477527605827</v>
+        <v>0.2624477527605826</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>0.2613663206279223</v>
+        <v>0.2613663206279222</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>0.5932402578790684</v>
+        <v>0.5932402578790683</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>5.563396834012184</v>
+        <v>5.563396834012183</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>17.50958781902981</v>
+        <v>17.5095878190298</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>3.046151068742157</v>
+        <v>3.046151068742156</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11119,7 +11119,7 @@
         <v>1347</v>
       </c>
       <c r="B1347">
-        <v>0.5265197052174265</v>
+        <v>0.5265197052174264</v>
       </c>
     </row>
     <row r="1348" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>1372</v>
       </c>
       <c r="B1372">
-        <v>0.5713683662637722</v>
+        <v>0.5713683662637721</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>5.196061594154054</v>
+        <v>5.196061594154053</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>9.888920214926578</v>
+        <v>9.888920214926577</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>5.551586071154132</v>
+        <v>5.551586071154131</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>0.8436079154970691</v>
+        <v>0.843607915497069</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>0.5042345834376178</v>
+        <v>0.5042345834376177</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>4.502479674058114</v>
+        <v>4.502479674058113</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>5.253825895874205</v>
+        <v>5.253825895874204</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11647,7 +11647,7 @@
         <v>1413</v>
       </c>
       <c r="B1413">
-        <v>11.3987635919021</v>
+        <v>11.39876359190209</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
@@ -11687,7 +11687,7 @@
         <v>1418</v>
       </c>
       <c r="B1418">
-        <v>0.3454369718493545</v>
+        <v>0.3454369718493544</v>
       </c>
     </row>
     <row r="1419" spans="1:2">
@@ -11847,7 +11847,7 @@
         <v>1438</v>
       </c>
       <c r="B1438">
-        <v>0.5423836405401652</v>
+        <v>0.5423836405401651</v>
       </c>
     </row>
     <row r="1439" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>0.2482127062707238</v>
+        <v>0.2482127062707237</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>2.840520705175811</v>
+        <v>2.84052070517581</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>3.323308350004192</v>
+        <v>3.323308350004191</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>0.6215216131098882</v>
+        <v>0.6215216131098881</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>0.2601919849760063</v>
+        <v>0.2601919849760062</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12359,7 +12359,7 @@
         <v>1502</v>
       </c>
       <c r="B1502">
-        <v>3.961030930131279</v>
+        <v>3.961030930131278</v>
       </c>
     </row>
     <row r="1503" spans="1:2">
@@ -12383,7 +12383,7 @@
         <v>1505</v>
       </c>
       <c r="B1505">
-        <v>15.51506355831616</v>
+        <v>15.51506355831615</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1510</v>
       </c>
       <c r="B1510">
-        <v>2.825494953023644</v>
+        <v>2.825494953023643</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>14.11236695307523</v>
+        <v>14.11236695307522</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>0.8555241839290394</v>
+        <v>0.8555241839290393</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>0.7165000753192571</v>
+        <v>0.716500075319257</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>0.445535385104137</v>
+        <v>0.4455353851041369</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12879,7 +12879,7 @@
         <v>1567</v>
       </c>
       <c r="B1567">
-        <v>0.4294194086881496</v>
+        <v>0.4294194086881495</v>
       </c>
     </row>
     <row r="1568" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>0.3456391908660308</v>
+        <v>0.3456391908660307</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>7.840617418618569</v>
+        <v>7.840617418618568</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>3.13635833444212</v>
+        <v>3.136358334442119</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13239,7 +13239,7 @@
         <v>1612</v>
       </c>
       <c r="B1612">
-        <v>0.3759310134220675</v>
+        <v>0.3759310134220674</v>
       </c>
     </row>
     <row r="1613" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>0.902641214814624</v>
+        <v>0.9026412148146238</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>4.070024049409433</v>
+        <v>4.070024049409432</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>0.7719432544132103</v>
+        <v>0.7719432544132102</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13439,7 +13439,7 @@
         <v>1637</v>
       </c>
       <c r="B1637">
-        <v>0.4653176802137778</v>
+        <v>0.4653176802137777</v>
       </c>
     </row>
     <row r="1638" spans="1:2">
@@ -13479,7 +13479,7 @@
         <v>1642</v>
       </c>
       <c r="B1642">
-        <v>0.726303301562479</v>
+        <v>0.7263033015624789</v>
       </c>
     </row>
     <row r="1643" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>4.032716106187844</v>
+        <v>4.032716106187843</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>0.4322915048670308</v>
+        <v>0.4322915048670307</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>5.836216663902031</v>
+        <v>5.83621666390203</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>2.255293009493744</v>
+        <v>2.255293009493743</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>10.73756602157824</v>
+        <v>10.73756602157823</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>0.7498398366773716</v>
+        <v>0.7498398366773715</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13919,7 +13919,7 @@
         <v>1697</v>
       </c>
       <c r="B1697">
-        <v>31.30614142084357</v>
+        <v>31.30614142084356</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13975,7 +13975,7 @@
         <v>1704</v>
       </c>
       <c r="B1704">
-        <v>4.004112372814497</v>
+        <v>4.004112372814496</v>
       </c>
     </row>
     <row r="1705" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>16.98311500517857</v>
+        <v>16.98311500517856</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>45.23522174633999</v>
+        <v>45.23522174633998</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>0.8924130355653429</v>
+        <v>0.8924130355653428</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>7.040005955203506</v>
+        <v>7.040005955203505</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>9.411947099505239</v>
+        <v>9.411947099505236</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>16.66621729107406</v>
+        <v>16.66621729107405</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>0.820135856010682</v>
+        <v>0.8201358560106818</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>4.265238668261755</v>
+        <v>4.265238668261754</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14455,7 +14455,7 @@
         <v>1764</v>
       </c>
       <c r="B1764">
-        <v>5.075023255186919</v>
+        <v>5.075023255186918</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>9.066240502300316</v>
+        <v>9.066240502300314</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>9.276841350682361</v>
+        <v>9.276841350682355</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>0.728615632057517</v>
+        <v>0.7286156320575169</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>0.5868425171050913</v>
+        <v>0.5868425171050912</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14839,7 +14839,7 @@
         <v>1812</v>
       </c>
       <c r="B1812">
-        <v>0.3103710220735245</v>
+        <v>0.3103710220735244</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -14951,7 +14951,7 @@
         <v>1826</v>
       </c>
       <c r="B1826">
-        <v>0.4299381444265802</v>
+        <v>0.4299381444265801</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>0.6731548687012441</v>
+        <v>0.673154868701244</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>0.5062978035497937</v>
+        <v>0.5062978035497936</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>0.1802020548968947</v>
+        <v>0.1802020548968946</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>31.00574360621569</v>
+        <v>31.00574360621568</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>0.9187015077332656</v>
+        <v>0.9187015077332654</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>0.8486868365970702</v>
+        <v>0.8486868365970701</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>22.83313531500155</v>
+        <v>22.83313531500154</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>0.5929794246546598</v>
+        <v>0.5929794246546597</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>0.4491079210654188</v>
+        <v>0.4491079210654187</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>0.7830066861226761</v>
+        <v>0.783006686122676</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>0.4864686170739671</v>
+        <v>0.486468617073967</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>5.009551185149974</v>
+        <v>5.009551185149973</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>5.404464409746137</v>
+        <v>5.404464409746136</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>0.6724339139461372</v>
+        <v>0.6724339139461371</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15919,7 +15919,7 @@
         <v>1947</v>
       </c>
       <c r="B1947">
-        <v>0.5530983177136239</v>
+        <v>0.5530983177136238</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>1.688350015913758</v>
+        <v>1.688350015913757</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>4.725770498414193</v>
+        <v>4.725770498414192</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>1.153114378006543</v>
+        <v>1.153114378006542</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16487,7 +16487,7 @@
         <v>2018</v>
       </c>
       <c r="B2018">
-        <v>0.8522505804271922</v>
+        <v>0.852250580427192</v>
       </c>
     </row>
     <row r="2019" spans="1:2">
@@ -16663,7 +16663,7 @@
         <v>2040</v>
       </c>
       <c r="B2040">
-        <v>3.425560835393135</v>
+        <v>3.425560835393134</v>
       </c>
     </row>
     <row r="2041" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>0.9306119147444628</v>
+        <v>0.9306119147444626</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -16919,7 +16919,7 @@
         <v>2072</v>
       </c>
       <c r="B2072">
-        <v>0.3698937500256438</v>
+        <v>0.3698937500256437</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>0.3140930242645236</v>
+        <v>0.3140930242645235</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -17007,7 +17007,7 @@
         <v>2083</v>
       </c>
       <c r="B2083">
-        <v>40.60323398029743</v>
+        <v>40.60323398029742</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>0.4817443119307462</v>
+        <v>0.4817443119307461</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>0.4489408705733818</v>
+        <v>0.4489408705733817</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17487,7 +17487,7 @@
         <v>2143</v>
       </c>
       <c r="B2143">
-        <v>0.3548474829007703</v>
+        <v>0.3548474829007702</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>40.46842130251321</v>
+        <v>40.4684213025132</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>71.04628119228333</v>
+        <v>71.04628119228332</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>1.865886589714028</v>
+        <v>1.865886589714027</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>0.8303874809430558</v>
+        <v>0.8303874809430557</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>3.968269784786214</v>
+        <v>3.968269784786213</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>22.64413380216885</v>
+        <v>22.64413380216884</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17975,7 +17975,7 @@
         <v>2204</v>
       </c>
       <c r="B2204">
-        <v>28.47595440049096</v>
+        <v>28.47595440049095</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>0.9269719724442887</v>
+        <v>0.9269719724442886</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>5.684347251667721</v>
+        <v>5.68434725166772</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18151,7 +18151,7 @@
         <v>2226</v>
       </c>
       <c r="B2226">
-        <v>35.23798247552418</v>
+        <v>35.23798247552417</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>9.658449150123296</v>
+        <v>9.658449150123294</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18207,7 +18207,7 @@
         <v>2233</v>
       </c>
       <c r="B2233">
-        <v>0.7817552727875922</v>
+        <v>0.781755272787592</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>0.4941881082323069</v>
+        <v>0.4941881082323068</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>0.5743401065957983</v>
+        <v>0.5743401065957981</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>0.3676312416071782</v>
+        <v>0.3676312416071781</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>0.711177905257167</v>
+        <v>0.7111779052571668</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18783,7 +18783,7 @@
         <v>2305</v>
       </c>
       <c r="B2305">
-        <v>0.9445005512666238</v>
+        <v>0.9445005512666236</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -18815,7 +18815,7 @@
         <v>2309</v>
       </c>
       <c r="B2309">
-        <v>0.758359411771257</v>
+        <v>0.7583594117712569</v>
       </c>
     </row>
     <row r="2310" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>0.7129421929099082</v>
+        <v>0.7129421929099081</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>0.5287499758216394</v>
+        <v>0.5287499758216393</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>41.05427030879724</v>
+        <v>41.05427030879723</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>36.72854177815578</v>
+        <v>36.72854177815577</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -18991,7 +18991,7 @@
         <v>2331</v>
       </c>
       <c r="B2331">
-        <v>0.8569162713626808</v>
+        <v>0.8569162713626807</v>
       </c>
     </row>
     <row r="2332" spans="1:2">
@@ -18999,7 +18999,7 @@
         <v>2332</v>
       </c>
       <c r="B2332">
-        <v>0.7685289768128056</v>
+        <v>0.7685289768128055</v>
       </c>
     </row>
     <row r="2333" spans="1:2">
@@ -19103,7 +19103,7 @@
         <v>2345</v>
       </c>
       <c r="B2345">
-        <v>57.14299111818911</v>
+        <v>57.1429911181891</v>
       </c>
     </row>
     <row r="2346" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>74.5804248475005</v>
+        <v>74.58042484750048</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19167,7 +19167,7 @@
         <v>2353</v>
       </c>
       <c r="B2353">
-        <v>6.83913506530502</v>
+        <v>6.839135065305019</v>
       </c>
     </row>
     <row r="2354" spans="1:2">
@@ -19215,7 +19215,7 @@
         <v>2359</v>
       </c>
       <c r="B2359">
-        <v>0.8093449803671712</v>
+        <v>0.8093449803671711</v>
       </c>
     </row>
     <row r="2360" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>60.0953887616635</v>
+        <v>60.09538876166349</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>6.603300800494236</v>
+        <v>6.603300800494235</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>45.3647591454283</v>
+        <v>45.36475914542829</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>39.69148997902198</v>
+        <v>39.69148997902197</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>2.198399128758417</v>
+        <v>2.198399128758416</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -19847,7 +19847,7 @@
         <v>2438</v>
       </c>
       <c r="B2438">
-        <v>7.497167468411339</v>
+        <v>7.497167468411338</v>
       </c>
     </row>
     <row r="2439" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>37.27336083902722</v>
+        <v>37.27336083902721</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>86.62769603375241</v>
+        <v>86.6276960337524</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>8.059922476848854</v>
+        <v>8.059922476848852</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>8.82920464623102</v>
+        <v>8.829204646231018</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>57.25230661560979</v>
+        <v>57.25230661560978</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>14.216846778358</v>
+        <v>14.21684677835799</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20367,7 +20367,7 @@
         <v>2503</v>
       </c>
       <c r="B2503">
-        <v>1.431842520035802</v>
+        <v>1.431842520035801</v>
       </c>
     </row>
     <row r="2504" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>73.49488972029887</v>
+        <v>73.49488972029886</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>6.803907926457927</v>
+        <v>6.803907926457926</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20663,7 +20663,7 @@
         <v>2540</v>
       </c>
       <c r="B2540">
-        <v>82.56221458544223</v>
+        <v>82.56221458544222</v>
       </c>
     </row>
     <row r="2541" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>4.241353378610856</v>
+        <v>4.241353378610855</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>6.728735205041292</v>
+        <v>6.728735205041291</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>6.904401985614902</v>
+        <v>6.904401985614901</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>7.867931639421807</v>
+        <v>7.867931639421806</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20847,7 +20847,7 @@
         <v>2563</v>
       </c>
       <c r="B2563">
-        <v>99.77369054394572</v>
+        <v>99.7736905439457</v>
       </c>
     </row>
     <row r="2564" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>14.61996599203668</v>
+        <v>14.61996599203667</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21111,7 +21111,7 @@
         <v>2596</v>
       </c>
       <c r="B2596">
-        <v>8.186675701069886</v>
+        <v>8.186675701069884</v>
       </c>
     </row>
     <row r="2597" spans="1:2">
@@ -21119,7 +21119,7 @@
         <v>2597</v>
       </c>
       <c r="B2597">
-        <v>8.003770065841341</v>
+        <v>8.003770065841339</v>
       </c>
     </row>
     <row r="2598" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>62.34998426208523</v>
+        <v>62.34998426208522</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>55.79222670099897</v>
+        <v>55.79222670099896</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>3.235621495236717</v>
+        <v>3.235621495236716</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>4.786875809975084</v>
+        <v>4.786875809975083</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21583,7 +21583,7 @@
         <v>2655</v>
       </c>
       <c r="B2655">
-        <v>15.28632161264098</v>
+        <v>15.28632161264097</v>
       </c>
     </row>
     <row r="2656" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>7.56319637342174</v>
+        <v>7.563196373421739</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>44.078177285705</v>
+        <v>44.07817728570499</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21911,7 +21911,7 @@
         <v>2696</v>
       </c>
       <c r="B2696">
-        <v>0.7984310148874227</v>
+        <v>0.7984310148874226</v>
       </c>
     </row>
     <row r="2697" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>4.742329012098559</v>
+        <v>4.742329012098558</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>4.233030161112874</v>
+        <v>4.233030161112873</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>5.733905564305355</v>
+        <v>5.733905564305354</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22175,7 +22175,7 @@
         <v>2729</v>
       </c>
       <c r="B2729">
-        <v>54.05753922316247</v>
+        <v>54.05753922316246</v>
       </c>
     </row>
     <row r="2730" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>12.17757057004076</v>
+        <v>12.17757057004075</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22327,7 +22327,7 @@
         <v>2748</v>
       </c>
       <c r="B2748">
-        <v>30.34340305884105</v>
+        <v>30.34340305884104</v>
       </c>
     </row>
     <row r="2749" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>76.17795507924349</v>
+        <v>76.17795507924347</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>48.55190669087043</v>
+        <v>48.55190669087042</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22583,7 +22583,7 @@
         <v>2780</v>
       </c>
       <c r="B2780">
-        <v>94.47027702833002</v>
+        <v>94.47027702833</v>
       </c>
     </row>
     <row r="2781" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>24.71347909905274</v>
+        <v>24.71347909905273</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>75.1838581161042</v>
+        <v>75.18385811610419</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>76.76878629318476</v>
+        <v>76.76878629318475</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>94.3703398041465</v>
+        <v>94.37033980414648</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>33.39339335818967</v>
+        <v>33.39339335818966</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -23327,7 +23327,7 @@
         <v>2873</v>
       </c>
       <c r="B2873">
-        <v>52.55672243417772</v>
+        <v>52.55672243417771</v>
       </c>
     </row>
     <row r="2874" spans="1:2">
@@ -23687,7 +23687,7 @@
         <v>2918</v>
       </c>
       <c r="B2918">
-        <v>7.9656415237115</v>
+        <v>7.965641523711499</v>
       </c>
     </row>
     <row r="2919" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>58.54152611468105</v>
+        <v>58.54152611468104</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>2.962977507970068</v>
+        <v>2.962977507970067</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>23.77406919172767</v>
+        <v>23.77406919172766</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>36.53218418225268</v>
+        <v>36.53218418225267</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>73.36974838679048</v>
+        <v>73.36974838679046</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>60.44472943974783</v>
+        <v>60.44472943974782</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24719,7 +24719,7 @@
         <v>3047</v>
       </c>
       <c r="B3047">
-        <v>61.88136367126574</v>
+        <v>61.88136367126573</v>
       </c>
     </row>
     <row r="3048" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>31.76362531219393</v>
+        <v>31.76362531219392</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>63.18846050369534</v>
+        <v>63.18846050369533</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24847,7 +24847,7 @@
         <v>3063</v>
       </c>
       <c r="B3063">
-        <v>68.54726444561804</v>
+        <v>68.54726444561803</v>
       </c>
     </row>
     <row r="3064" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>117.2758929728013</v>
+        <v>117.2758929728012</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -24919,7 +24919,7 @@
         <v>3072</v>
       </c>
       <c r="B3072">
-        <v>41.764967577551</v>
+        <v>41.76496757755099</v>
       </c>
     </row>
     <row r="3073" spans="1:2">
@@ -24927,7 +24927,7 @@
         <v>3073</v>
       </c>
       <c r="B3073">
-        <v>34.95018671555874</v>
+        <v>34.95018671555873</v>
       </c>
     </row>
     <row r="3074" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>16.80495712077634</v>
+        <v>16.80495712077633</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -25055,7 +25055,7 @@
         <v>3089</v>
       </c>
       <c r="B3089">
-        <v>35.59728756892299</v>
+        <v>35.59728756892298</v>
       </c>
     </row>
     <row r="3090" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>73.6015675783716</v>
+        <v>73.60156757837159</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>5.158460579893804</v>
+        <v>5.158460579893803</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>25.37567311090805</v>
+        <v>25.37567311090804</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>66.45034116399611</v>
+        <v>66.4503411639961</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>6.719210396284798</v>
+        <v>6.719210396284797</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25407,7 +25407,7 @@
         <v>3133</v>
       </c>
       <c r="B3133">
-        <v>31.83366929043399</v>
+        <v>31.83366929043398</v>
       </c>
     </row>
     <row r="3134" spans="1:2">
@@ -25423,7 +25423,7 @@
         <v>3135</v>
       </c>
       <c r="B3135">
-        <v>57.86365280225736</v>
+        <v>57.86365280225735</v>
       </c>
     </row>
     <row r="3136" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>91.47391872905642</v>
+        <v>91.47391872905639</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25655,7 +25655,7 @@
         <v>3164</v>
       </c>
       <c r="B3164">
-        <v>68.17770186586608</v>
+        <v>68.17770186586607</v>
       </c>
     </row>
     <row r="3165" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>9.327278876435976</v>
+        <v>9.327278876435974</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>5.31891697356089</v>
+        <v>5.318916973560889</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>53.37702827139082</v>
+        <v>53.37702827139081</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>7.589191774551002</v>
+        <v>7.589191774551001</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>7.160487459197185</v>
+        <v>7.160487459197184</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>6.346658491938496</v>
+        <v>6.346658491938495</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>6.882333736403703</v>
+        <v>6.882333736403702</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26231,7 +26231,7 @@
         <v>3236</v>
       </c>
       <c r="B3236">
-        <v>92.79596218445776</v>
+        <v>92.79596218445774</v>
       </c>
     </row>
     <row r="3237" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>35.73239331774587</v>
+        <v>35.73239331774586</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>12.32313895494385</v>
+        <v>12.32313895494384</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26399,7 +26399,7 @@
         <v>3257</v>
       </c>
       <c r="B3257">
-        <v>89.2776443653283</v>
+        <v>89.27764436532829</v>
       </c>
     </row>
     <row r="3258" spans="1:2">
@@ -26447,7 +26447,7 @@
         <v>3263</v>
       </c>
       <c r="B3263">
-        <v>52.55965314456433</v>
+        <v>52.55965314456432</v>
       </c>
     </row>
     <row r="3264" spans="1:2">
@@ -26463,7 +26463,7 @@
         <v>3265</v>
       </c>
       <c r="B3265">
-        <v>34.46075808099429</v>
+        <v>34.46075808099428</v>
       </c>
     </row>
     <row r="3266" spans="1:2">
@@ -26471,7 +26471,7 @@
         <v>3266</v>
       </c>
       <c r="B3266">
-        <v>26.61085031045016</v>
+        <v>26.61085031045015</v>
       </c>
     </row>
     <row r="3267" spans="1:2">
@@ -26663,7 +26663,7 @@
         <v>3290</v>
       </c>
       <c r="B3290">
-        <v>31.03358535488852</v>
+        <v>31.03358535488851</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>5.632385756513065</v>
+        <v>5.632385756513064</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>70.98327091897114</v>
+        <v>70.98327091897113</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>76.47600832556208</v>
+        <v>76.47600832556206</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>12.06013700484916</v>
+        <v>12.06013700484915</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>39.79084106112818</v>
+        <v>39.79084106112817</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>72.84778886693462</v>
+        <v>72.84778886693461</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>27.50668055432629</v>
+        <v>27.50668055432628</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>48.39657904037992</v>
+        <v>48.39657904037991</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27735,7 +27735,7 @@
         <v>3424</v>
       </c>
       <c r="B3424">
-        <v>89.13257420119093</v>
+        <v>89.13257420119092</v>
       </c>
     </row>
     <row r="3425" spans="1:2">
@@ -27759,7 +27759,7 @@
         <v>3427</v>
       </c>
       <c r="B3427">
-        <v>122.8606546855319</v>
+        <v>122.8606546855318</v>
       </c>
     </row>
     <row r="3428" spans="1:2">
@@ -27783,7 +27783,7 @@
         <v>3430</v>
       </c>
       <c r="B3430">
-        <v>59.00985363446188</v>
+        <v>59.00985363446187</v>
       </c>
     </row>
     <row r="3431" spans="1:2">
@@ -28039,7 +28039,7 @@
         <v>3462</v>
       </c>
       <c r="B3462">
-        <v>4.1085628909934</v>
+        <v>4.108562890993399</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>6.592281329440569</v>
+        <v>6.592281329440568</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28215,7 +28215,7 @@
         <v>3484</v>
       </c>
       <c r="B3484">
-        <v>8.771235194783806</v>
+        <v>8.771235194783804</v>
       </c>
     </row>
     <row r="3485" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>17.35159322208748</v>
+        <v>17.35159322208747</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>84.09556225971839</v>
+        <v>84.09556225971838</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>46.07340491691144</v>
+        <v>46.07340491691143</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>57.39210150105125</v>
+        <v>57.39210150105124</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>65.62300162185514</v>
+        <v>65.62300162185512</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28679,7 +28679,7 @@
         <v>3542</v>
       </c>
       <c r="B3542">
-        <v>77.08940600948027</v>
+        <v>77.08940600948026</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>91.73152817203976</v>
+        <v>91.73152817203972</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -29007,7 +29007,7 @@
         <v>3583</v>
       </c>
       <c r="B3583">
-        <v>7.690359897096897</v>
+        <v>7.690359897096896</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>61.00742583397761</v>
+        <v>61.0074258339776</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29191,7 +29191,7 @@
         <v>3606</v>
       </c>
       <c r="B3606">
-        <v>35.1081520053972</v>
+        <v>35.10815200539719</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -29239,7 +29239,7 @@
         <v>3612</v>
       </c>
       <c r="B3612">
-        <v>55.15333183671724</v>
+        <v>55.15333183671723</v>
       </c>
     </row>
     <row r="3613" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>58.65318618041102</v>
+        <v>58.65318618041101</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>153.623735471736</v>
+        <v>153.6237354717359</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>45.75190598749994</v>
+        <v>45.75190598749993</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29519,7 +29519,7 @@
         <v>3647</v>
       </c>
       <c r="B3647">
-        <v>80.47320422186417</v>
+        <v>80.47320422186415</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>64.69250107410537</v>
+        <v>64.69250107410535</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29647,7 +29647,7 @@
         <v>3663</v>
       </c>
       <c r="B3663">
-        <v>81.42099596089496</v>
+        <v>81.42099596089494</v>
       </c>
     </row>
     <row r="3664" spans="1:2">
@@ -29727,7 +29727,7 @@
         <v>3673</v>
       </c>
       <c r="B3673">
-        <v>73.18950969801375</v>
+        <v>73.18950969801374</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -29735,7 +29735,7 @@
         <v>3674</v>
       </c>
       <c r="B3674">
-        <v>65.41111126090298</v>
+        <v>65.41111126090297</v>
       </c>
     </row>
     <row r="3675" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>58.63296427874339</v>
+        <v>58.63296427874338</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>89.99566841004859</v>
+        <v>89.99566841004858</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>104.3649414356144</v>
+        <v>104.3649414356143</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>63.87395366312423</v>
+        <v>63.87395366312422</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -29935,7 +29935,7 @@
         <v>3699</v>
       </c>
       <c r="B3699">
-        <v>56.91351649491728</v>
+        <v>56.91351649491727</v>
       </c>
     </row>
     <row r="3700" spans="1:2">
@@ -29951,7 +29951,7 @@
         <v>3701</v>
       </c>
       <c r="B3701">
-        <v>50.21537790631223</v>
+        <v>50.21537790631222</v>
       </c>
     </row>
     <row r="3702" spans="1:2">
@@ -30103,7 +30103,7 @@
         <v>3720</v>
       </c>
       <c r="B3720">
-        <v>96.72428638667442</v>
+        <v>96.72428638667439</v>
       </c>
     </row>
     <row r="3721" spans="1:2">
@@ -30135,7 +30135,7 @@
         <v>3724</v>
       </c>
       <c r="B3724">
-        <v>63.79189377229905</v>
+        <v>63.79189377229904</v>
       </c>
     </row>
     <row r="3725" spans="1:2">
@@ -30183,7 +30183,7 @@
         <v>3730</v>
       </c>
       <c r="B3730">
-        <v>53.275625692014</v>
+        <v>53.27562569201399</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -30207,7 +30207,7 @@
         <v>3733</v>
       </c>
       <c r="B3733">
-        <v>54.39398477554569</v>
+        <v>54.39398477554568</v>
       </c>
     </row>
     <row r="3734" spans="1:2">
@@ -30223,7 +30223,7 @@
         <v>3735</v>
       </c>
       <c r="B3735">
-        <v>86.03422718046319</v>
+        <v>86.03422718046318</v>
       </c>
     </row>
     <row r="3736" spans="1:2">
@@ -30311,7 +30311,7 @@
         <v>3746</v>
       </c>
       <c r="B3746">
-        <v>59.61123540579496</v>
+        <v>59.61123540579495</v>
       </c>
     </row>
     <row r="3747" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>52.65138437966533</v>
+        <v>52.65138437966532</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>47.60411495183964</v>
+        <v>47.60411495183963</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30479,7 +30479,7 @@
         <v>3767</v>
       </c>
       <c r="B3767">
-        <v>94.3445495527443</v>
+        <v>94.34454955274428</v>
       </c>
     </row>
     <row r="3768" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>80.57196916189304</v>
+        <v>80.57196916189302</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30527,7 +30527,7 @@
         <v>3773</v>
       </c>
       <c r="B3773">
-        <v>48.44259119344975</v>
+        <v>48.44259119344974</v>
       </c>
     </row>
     <row r="3774" spans="1:2">
@@ -30647,7 +30647,7 @@
         <v>3788</v>
       </c>
       <c r="B3788">
-        <v>136.9368566724363</v>
+        <v>136.9368566724362</v>
       </c>
     </row>
     <row r="3789" spans="1:2">
@@ -30663,7 +30663,7 @@
         <v>3790</v>
       </c>
       <c r="B3790">
-        <v>102.0851418258678</v>
+        <v>102.0851418258677</v>
       </c>
     </row>
     <row r="3791" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>39.82864722511549</v>
+        <v>39.82864722511548</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30759,7 +30759,7 @@
         <v>3802</v>
       </c>
       <c r="B3802">
-        <v>48.79662100815266</v>
+        <v>48.79662100815265</v>
       </c>
     </row>
     <row r="3803" spans="1:2">
@@ -30775,7 +30775,7 @@
         <v>3804</v>
       </c>
       <c r="B3804">
-        <v>43.25787144849189</v>
+        <v>43.25787144849188</v>
       </c>
     </row>
     <row r="3805" spans="1:2">
@@ -30831,7 +30831,7 @@
         <v>3811</v>
       </c>
       <c r="B3811">
-        <v>163.169938414052</v>
+        <v>163.1699384140519</v>
       </c>
     </row>
     <row r="3812" spans="1:2">
@@ -30863,7 +30863,7 @@
         <v>3815</v>
       </c>
       <c r="B3815">
-        <v>80.97523491109105</v>
+        <v>80.97523491109104</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
@@ -30871,7 +30871,7 @@
         <v>3816</v>
       </c>
       <c r="B3816">
-        <v>68.88107235865331</v>
+        <v>68.8810723586533</v>
       </c>
     </row>
     <row r="3817" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>40.75621706247865</v>
+        <v>40.75621706247864</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>44.26427739525495</v>
+        <v>44.26427739525494</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -31055,7 +31055,7 @@
         <v>3839</v>
       </c>
       <c r="B3839">
-        <v>76.34559171335778</v>
+        <v>76.34559171335776</v>
       </c>
     </row>
     <row r="3840" spans="1:2">
@@ -31239,7 +31239,7 @@
         <v>3862</v>
       </c>
       <c r="B3862">
-        <v>87.86621424313526</v>
+        <v>87.86621424313525</v>
       </c>
     </row>
     <row r="3863" spans="1:2">
@@ -31255,7 +31255,7 @@
         <v>3864</v>
       </c>
       <c r="B3864">
-        <v>66.23903694512128</v>
+        <v>66.23903694512127</v>
       </c>
     </row>
     <row r="3865" spans="1:2">
@@ -31271,7 +31271,7 @@
         <v>3866</v>
       </c>
       <c r="B3866">
-        <v>51.25783159083064</v>
+        <v>51.25783159083063</v>
       </c>
     </row>
     <row r="3867" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>45.06934353845767</v>
+        <v>45.06934353845766</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>48.34587775069151</v>
+        <v>48.3458777506915</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31391,7 +31391,7 @@
         <v>3881</v>
       </c>
       <c r="B3881">
-        <v>86.66931212124233</v>
+        <v>86.66931212124231</v>
       </c>
     </row>
     <row r="3882" spans="1:2">
@@ -31455,7 +31455,7 @@
         <v>3889</v>
       </c>
       <c r="B3889">
-        <v>58.79620484727776</v>
+        <v>58.79620484727775</v>
       </c>
     </row>
     <row r="3890" spans="1:2">
@@ -31463,7 +31463,7 @@
         <v>3890</v>
       </c>
       <c r="B3890">
-        <v>50.08320286787596</v>
+        <v>50.08320286787595</v>
       </c>
     </row>
     <row r="3891" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>5.024878800471962</v>
+        <v>5.024878800471961</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>39.54085146515005</v>
+        <v>39.54085146515004</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31831,7 +31831,7 @@
         <v>3936</v>
       </c>
       <c r="B3936">
-        <v>49.3725055991222</v>
+        <v>49.37250559912219</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>29.42990063133364</v>
+        <v>29.42990063133363</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31951,7 +31951,7 @@
         <v>3951</v>
       </c>
       <c r="B3951">
-        <v>66.21588433306704</v>
+        <v>66.21588433306702</v>
       </c>
     </row>
     <row r="3952" spans="1:2">
@@ -31999,7 +31999,7 @@
         <v>3957</v>
       </c>
       <c r="B3957">
-        <v>85.84871321299056</v>
+        <v>85.84871321299055</v>
       </c>
     </row>
     <row r="3958" spans="1:2">
@@ -32143,7 +32143,7 @@
         <v>3975</v>
       </c>
       <c r="B3975">
-        <v>58.25636799406356</v>
+        <v>58.25636799406355</v>
       </c>
     </row>
     <row r="3976" spans="1:2">
@@ -32191,7 +32191,7 @@
         <v>3981</v>
       </c>
       <c r="B3981">
-        <v>84.65913786706416</v>
+        <v>84.65913786706415</v>
       </c>
     </row>
     <row r="3982" spans="1:2">
@@ -32207,7 +32207,7 @@
         <v>3983</v>
       </c>
       <c r="B3983">
-        <v>54.85498551935999</v>
+        <v>54.85498551935998</v>
       </c>
     </row>
     <row r="3984" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>43.49262135045963</v>
+        <v>43.49262135045962</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32615,7 +32615,7 @@
         <v>4034</v>
       </c>
       <c r="B4034">
-        <v>44.30765190897683</v>
+        <v>44.30765190897682</v>
       </c>
     </row>
     <row r="4035" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>83.05838385389589</v>
+        <v>83.05838385389588</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32839,7 +32839,7 @@
         <v>4062</v>
       </c>
       <c r="B4062">
-        <v>41.32946401410024</v>
+        <v>41.32946401410023</v>
       </c>
     </row>
     <row r="4063" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>61.31573656664934</v>
+        <v>61.31573656664933</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>90.99181687045851</v>
+        <v>90.99181687045848</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>51.52745694639907</v>
+        <v>51.52745694639906</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>34.2544360697767</v>
+        <v>34.25443606977669</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33063,7 +33063,7 @@
         <v>4090</v>
       </c>
       <c r="B4090">
-        <v>50.98234481448897</v>
+        <v>50.98234481448896</v>
       </c>
     </row>
     <row r="4091" spans="1:2">
@@ -33207,7 +33207,7 @@
         <v>4108</v>
       </c>
       <c r="B4108">
-        <v>44.8325421392193</v>
+        <v>44.83254213921929</v>
       </c>
     </row>
     <row r="4109" spans="1:2">
@@ -33351,7 +33351,7 @@
         <v>4126</v>
       </c>
       <c r="B4126">
-        <v>98.70925653152771</v>
+        <v>98.7092565315277</v>
       </c>
     </row>
     <row r="4127" spans="1:2">
@@ -33367,7 +33367,7 @@
         <v>4128</v>
       </c>
       <c r="B4128">
-        <v>69.15861063226561</v>
+        <v>69.15861063226559</v>
       </c>
     </row>
     <row r="4129" spans="1:2">
@@ -33375,7 +33375,7 @@
         <v>4129</v>
       </c>
       <c r="B4129">
-        <v>60.15634753770506</v>
+        <v>60.15634753770505</v>
       </c>
     </row>
     <row r="4130" spans="1:2">
@@ -33399,7 +33399,7 @@
         <v>4132</v>
       </c>
       <c r="B4132">
-        <v>38.74604280830048</v>
+        <v>38.74604280830047</v>
       </c>
     </row>
     <row r="4133" spans="1:2">
@@ -33943,7 +33943,7 @@
         <v>4200</v>
       </c>
       <c r="B4200">
-        <v>51.42605436702225</v>
+        <v>51.42605436702224</v>
       </c>
     </row>
     <row r="4201" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>43.27838642119819</v>
+        <v>43.27838642119818</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>16.49802382198631</v>
+        <v>16.4980238219863</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>20.17386732439624</v>
+        <v>20.17386732439623</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34215,7 +34215,7 @@
         <v>4234</v>
       </c>
       <c r="B4234">
-        <v>46.65397864449956</v>
+        <v>46.65397864449955</v>
       </c>
     </row>
     <row r="4235" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>48.97744583900671</v>
+        <v>48.9774458390067</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>60.17950014975931</v>
+        <v>60.1795001497593</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>37.45711638026789</v>
+        <v>37.45711638026788</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34551,7 +34551,7 @@
         <v>4276</v>
       </c>
       <c r="B4276">
-        <v>65.71180214656953</v>
+        <v>65.71180214656951</v>
       </c>
     </row>
     <row r="4277" spans="1:2">
@@ -34567,7 +34567,7 @@
         <v>4278</v>
       </c>
       <c r="B4278">
-        <v>68.98833635880337</v>
+        <v>68.98833635880335</v>
       </c>
     </row>
     <row r="4279" spans="1:2">
@@ -34719,7 +34719,7 @@
         <v>4297</v>
       </c>
       <c r="B4297">
-        <v>94.40404297359257</v>
+        <v>94.40404297359254</v>
       </c>
     </row>
     <row r="4298" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>67.45967782114579</v>
+        <v>67.45967782114577</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>80.73286516211812</v>
+        <v>80.7328651621181</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34935,7 +34935,7 @@
         <v>4324</v>
       </c>
       <c r="B4324">
-        <v>60.51096349448529</v>
+        <v>60.51096349448528</v>
       </c>
     </row>
     <row r="4325" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>56.47039308446132</v>
+        <v>56.47039308446131</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -34983,7 +34983,7 @@
         <v>4330</v>
       </c>
       <c r="B4330">
-        <v>80.70238577409734</v>
+        <v>80.70238577409732</v>
       </c>
     </row>
     <row r="4331" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>90.27848196235681</v>
+        <v>90.27848196235678</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35015,7 +35015,7 @@
         <v>4334</v>
       </c>
       <c r="B4334">
-        <v>92.27136502525394</v>
+        <v>92.27136502525391</v>
       </c>
     </row>
     <row r="4335" spans="1:2">
@@ -35127,7 +35127,7 @@
         <v>4348</v>
       </c>
       <c r="B4348">
-        <v>57.35927754472118</v>
+        <v>57.35927754472117</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>52.62823176761109</v>
+        <v>52.62823176761108</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>56.15182486543644</v>
+        <v>56.15182486543643</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35199,7 +35199,7 @@
         <v>4357</v>
       </c>
       <c r="B4357">
-        <v>60.0165526522636</v>
+        <v>60.01655265226359</v>
       </c>
     </row>
     <row r="4358" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>128.5292347153196</v>
+        <v>128.5292347153195</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35279,7 +35279,7 @@
         <v>4367</v>
       </c>
       <c r="B4367">
-        <v>97.19788918515115</v>
+        <v>97.19788918515114</v>
       </c>
     </row>
     <row r="4368" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>57.44866421151289</v>
+        <v>57.44866421151288</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>80.18247775151211</v>
+        <v>80.1824777515121</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>60.33482780024982</v>
+        <v>60.33482780024981</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>70.53164844839401</v>
+        <v>70.53164844839399</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>83.09208702334195</v>
+        <v>83.09208702334193</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35767,7 +35767,7 @@
         <v>4428</v>
       </c>
       <c r="B4428">
-        <v>49.90765331571782</v>
+        <v>49.90765331571781</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -35775,7 +35775,7 @@
         <v>4429</v>
       </c>
       <c r="B4429">
-        <v>47.40541278762725</v>
+        <v>47.40541278762724</v>
       </c>
     </row>
     <row r="4430" spans="1:2">
@@ -35983,7 +35983,7 @@
         <v>4455</v>
       </c>
       <c r="B4455">
-        <v>84.61283264295567</v>
+        <v>84.61283264295565</v>
       </c>
     </row>
     <row r="4456" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>50.73030372124021</v>
+        <v>50.7303037212402</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36303,7 +36303,7 @@
         <v>4495</v>
       </c>
       <c r="B4495">
-        <v>7.537142358084746</v>
+        <v>7.537142358084745</v>
       </c>
     </row>
     <row r="4496" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>68.92473994341385</v>
+        <v>68.92473994341384</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36511,7 +36511,7 @@
         <v>4521</v>
       </c>
       <c r="B4521">
-        <v>66.01718216885465</v>
+        <v>66.01718216885463</v>
       </c>
     </row>
     <row r="4522" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>58.82932187464649</v>
+        <v>58.82932187464648</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>58.97966731747976</v>
+        <v>58.97966731747975</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -36743,7 +36743,7 @@
         <v>4550</v>
       </c>
       <c r="B4550">
-        <v>72.95446672500735</v>
+        <v>72.95446672500734</v>
       </c>
     </row>
     <row r="4551" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>67.93855589831843</v>
+        <v>67.93855589831841</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>56.4220363630822</v>
+        <v>56.42203636308219</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36919,7 +36919,7 @@
         <v>4572</v>
       </c>
       <c r="B4572">
-        <v>40.98305404640253</v>
+        <v>40.98305404640252</v>
       </c>
     </row>
     <row r="4573" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>58.04447763311141</v>
+        <v>58.0444776331114</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36959,7 +36959,7 @@
         <v>4577</v>
       </c>
       <c r="B4577">
-        <v>96.84679008083486</v>
+        <v>96.84679008083484</v>
       </c>
     </row>
     <row r="4578" spans="1:2">
@@ -36967,7 +36967,7 @@
         <v>4578</v>
       </c>
       <c r="B4578">
-        <v>175.7124996556416</v>
+        <v>175.7124996556415</v>
       </c>
     </row>
     <row r="4579" spans="1:2">
@@ -37031,7 +37031,7 @@
         <v>4586</v>
       </c>
       <c r="B4586">
-        <v>68.13462042318287</v>
+        <v>68.13462042318285</v>
       </c>
     </row>
     <row r="4587" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>84.29162678458283</v>
+        <v>84.29162678458282</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37111,7 +37111,7 @@
         <v>4596</v>
       </c>
       <c r="B4596">
-        <v>88.49602390521849</v>
+        <v>88.49602390521848</v>
       </c>
     </row>
     <row r="4597" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>59.15257923028995</v>
+        <v>59.15257923028994</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>57.02546963168591</v>
+        <v>57.0254696316859</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>57.35927754472118</v>
+        <v>57.35927754472117</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37479,7 +37479,7 @@
         <v>4642</v>
       </c>
       <c r="B4642">
-        <v>29.85661206362456</v>
+        <v>29.85661206362455</v>
       </c>
     </row>
     <row r="4643" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>174.2143205060048</v>
+        <v>174.2143205060047</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37575,7 +37575,7 @@
         <v>4654</v>
       </c>
       <c r="B4654">
-        <v>110.2961131160427</v>
+        <v>110.2961131160426</v>
       </c>
     </row>
     <row r="4655" spans="1:2">
@@ -37591,7 +37591,7 @@
         <v>4656</v>
       </c>
       <c r="B4656">
-        <v>80.69974813474938</v>
+        <v>80.69974813474937</v>
       </c>
     </row>
     <row r="4657" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>54.53905493968306</v>
+        <v>54.53905493968305</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>52.65900422667053</v>
+        <v>52.65900422667052</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>7.085607808819211</v>
+        <v>7.08560780881921</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37671,7 +37671,7 @@
         <v>4666</v>
       </c>
       <c r="B4666">
-        <v>52.77887028148302</v>
+        <v>52.77887028148301</v>
       </c>
     </row>
     <row r="4667" spans="1:2">
@@ -37695,7 +37695,7 @@
         <v>4669</v>
       </c>
       <c r="B4669">
-        <v>63.75672524765969</v>
+        <v>63.75672524765968</v>
       </c>
     </row>
     <row r="4670" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>75.91507035756426</v>
+        <v>75.91507035756425</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37927,7 +37927,7 @@
         <v>4698</v>
       </c>
       <c r="B4698">
-        <v>254.0017384974014</v>
+        <v>254.0017384974013</v>
       </c>
     </row>
     <row r="4699" spans="1:2">
@@ -37983,7 +37983,7 @@
         <v>4705</v>
       </c>
       <c r="B4705">
-        <v>102.5256275969758</v>
+        <v>102.5256275969757</v>
       </c>
     </row>
     <row r="4706" spans="1:2">
@@ -38199,7 +38199,7 @@
         <v>4732</v>
       </c>
       <c r="B4732">
-        <v>69.11552918958239</v>
+        <v>69.11552918958238</v>
       </c>
     </row>
     <row r="4733" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>68.98833635880337</v>
+        <v>68.98833635880335</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>96.52822186180998</v>
+        <v>96.52822186180995</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>183.9035421151875</v>
+        <v>183.9035421151874</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38351,7 +38351,7 @@
         <v>4751</v>
       </c>
       <c r="B4751">
-        <v>94.83456432938608</v>
+        <v>94.83456432938604</v>
       </c>
     </row>
     <row r="4752" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>52.63321397526833</v>
+        <v>52.63321397526832</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38407,7 +38407,7 @@
         <v>4758</v>
       </c>
       <c r="B4758">
-        <v>51.98904383229069</v>
+        <v>51.98904383229068</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>34.8329583000942</v>
+        <v>34.83295830009419</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>20.79227652307554</v>
+        <v>20.79227652307553</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38663,7 +38663,7 @@
         <v>4790</v>
       </c>
       <c r="B4790">
-        <v>60.57924904649338</v>
+        <v>60.57924904649337</v>
       </c>
     </row>
     <row r="4791" spans="1:2">
@@ -38671,7 +38671,7 @@
         <v>4791</v>
       </c>
       <c r="B4791">
-        <v>78.99231626350839</v>
+        <v>78.99231626350837</v>
       </c>
     </row>
     <row r="4792" spans="1:2">
@@ -38751,7 +38751,7 @@
         <v>4801</v>
       </c>
       <c r="B4801">
-        <v>67.39549526367895</v>
+        <v>67.39549526367894</v>
       </c>
     </row>
     <row r="4802" spans="1:2">
@@ -38767,7 +38767,7 @@
         <v>4803</v>
       </c>
       <c r="B4803">
-        <v>51.76484448771476</v>
+        <v>51.76484448771475</v>
       </c>
     </row>
     <row r="4804" spans="1:2">
@@ -38799,7 +38799,7 @@
         <v>4807</v>
       </c>
       <c r="B4807">
-        <v>9.294806605352299</v>
+        <v>9.294806605352298</v>
       </c>
     </row>
     <row r="4808" spans="1:2">
@@ -38943,7 +38943,7 @@
         <v>4825</v>
       </c>
       <c r="B4825">
-        <v>62.44171549718623</v>
+        <v>62.44171549718622</v>
       </c>
     </row>
     <row r="4826" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>41.84409675798956</v>
+        <v>41.84409675798955</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>55.86637367378029</v>
+        <v>55.86637367378028</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39071,7 +39071,7 @@
         <v>4841</v>
       </c>
       <c r="B4841">
-        <v>91.8760121940998</v>
+        <v>91.87601219409976</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>50.97208732813582</v>
+        <v>50.97208732813581</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>67.79817487079964</v>
+        <v>67.79817487079963</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>84.4677624788183</v>
+        <v>84.46776247881829</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>51.28069113184622</v>
+        <v>51.28069113184621</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>12.68402663195143</v>
+        <v>12.68402663195142</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>89.04318753439922</v>
+        <v>89.04318753439921</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39519,7 +39519,7 @@
         <v>4897</v>
       </c>
       <c r="B4897">
-        <v>76.49124801957247</v>
+        <v>76.49124801957245</v>
       </c>
     </row>
     <row r="4898" spans="1:2">
@@ -39527,7 +39527,7 @@
         <v>4898</v>
       </c>
       <c r="B4898">
-        <v>66.82986815906256</v>
+        <v>66.82986815906254</v>
       </c>
     </row>
     <row r="4899" spans="1:2">
@@ -39551,7 +39551,7 @@
         <v>4901</v>
       </c>
       <c r="B4901">
-        <v>51.32641021387739</v>
+        <v>51.32641021387738</v>
       </c>
     </row>
     <row r="4902" spans="1:2">
@@ -39591,7 +39591,7 @@
         <v>4906</v>
       </c>
       <c r="B4906">
-        <v>65.85482081343626</v>
+        <v>65.85482081343625</v>
       </c>
     </row>
     <row r="4907" spans="1:2">
@@ -39727,7 +39727,7 @@
         <v>4923</v>
       </c>
       <c r="B4923">
-        <v>62.54135965033109</v>
+        <v>62.54135965033108</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>70.60052014247943</v>
+        <v>70.60052014247941</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>79.4796934008022</v>
+        <v>79.47969340080219</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>83.10732671735234</v>
+        <v>83.10732671735232</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40191,7 +40191,7 @@
         <v>4981</v>
       </c>
       <c r="B4981">
-        <v>98.5767884220528</v>
+        <v>98.57678842205276</v>
       </c>
     </row>
     <row r="4982" spans="1:2">
@@ -40271,7 +40271,7 @@
         <v>4991</v>
       </c>
       <c r="B4991">
-        <v>123.8189969819545</v>
+        <v>123.8189969819544</v>
       </c>
     </row>
     <row r="4992" spans="1:2">
@@ -40295,7 +40295,7 @@
         <v>4994</v>
       </c>
       <c r="B4994">
-        <v>87.28329594723785</v>
+        <v>87.28329594723783</v>
       </c>
     </row>
     <row r="4995" spans="1:2">
@@ -40311,7 +40311,7 @@
         <v>4996</v>
       </c>
       <c r="B4996">
-        <v>74.14931734962965</v>
+        <v>74.14931734962964</v>
       </c>
     </row>
     <row r="4997" spans="1:2">
@@ -40431,7 +40431,7 @@
         <v>5011</v>
       </c>
       <c r="B5011">
-        <v>202.3693621191616</v>
+        <v>202.3693621191615</v>
       </c>
     </row>
     <row r="5012" spans="1:2">
@@ -40503,7 +40503,7 @@
         <v>5020</v>
       </c>
       <c r="B5020">
-        <v>74.03208893416512</v>
+        <v>74.0320889341651</v>
       </c>
     </row>
     <row r="5021" spans="1:2">
@@ -40511,7 +40511,7 @@
         <v>5021</v>
       </c>
       <c r="B5021">
-        <v>69.49241854530088</v>
+        <v>69.49241854530086</v>
       </c>
     </row>
     <row r="5022" spans="1:2">
@@ -40519,7 +40519,7 @@
         <v>5022</v>
       </c>
       <c r="B5022">
-        <v>70.7508655853127</v>
+        <v>70.75086558531268</v>
       </c>
     </row>
     <row r="5023" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>90.56715693543822</v>
+        <v>90.56715693543821</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>83.10468907800438</v>
+        <v>83.10468907800437</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>74.25921898912766</v>
+        <v>74.25921898912765</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40727,7 +40727,7 @@
         <v>5048</v>
       </c>
       <c r="B5048">
-        <v>44.24376242254866</v>
+        <v>44.24376242254865</v>
       </c>
     </row>
     <row r="5049" spans="1:2">
@@ -40871,7 +40871,7 @@
         <v>5066</v>
       </c>
       <c r="B5066">
-        <v>95.44532437395632</v>
+        <v>95.4453243739563</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>87.86621424313526</v>
+        <v>87.86621424313525</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -40887,7 +40887,7 @@
         <v>5068</v>
       </c>
       <c r="B5068">
-        <v>81.00043902041593</v>
+        <v>81.00043902041591</v>
       </c>
     </row>
     <row r="5069" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>84.25382062059552</v>
+        <v>84.2538206205955</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41295,7 +41295,7 @@
         <v>5119</v>
       </c>
       <c r="B5119">
-        <v>23.94111968376463</v>
+        <v>23.94111968376462</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41383,7 +41383,7 @@
         <v>5130</v>
       </c>
       <c r="B5130">
-        <v>284.6678127698086</v>
+        <v>284.6678127698085</v>
       </c>
     </row>
     <row r="5131" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>83.68291823728322</v>
+        <v>83.6829182372832</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>77.51523822865521</v>
+        <v>77.51523822865519</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -41575,7 +41575,7 @@
         <v>5154</v>
       </c>
       <c r="B5154">
-        <v>225.8531444470952</v>
+        <v>225.8531444470951</v>
       </c>
     </row>
     <row r="5155" spans="1:2">
@@ -41583,7 +41583,7 @@
         <v>5155</v>
       </c>
       <c r="B5155">
-        <v>219.5524101869149</v>
+        <v>219.5524101869148</v>
       </c>
     </row>
     <row r="5156" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>82.80927347103375</v>
+        <v>82.80927347103373</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>63.04309726851931</v>
+        <v>63.0430972685193</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>63.71335073393781</v>
+        <v>63.7133507339378</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -42015,7 +42015,7 @@
         <v>5209</v>
       </c>
       <c r="B5209">
-        <v>90.69376362413992</v>
+        <v>90.6937636241399</v>
       </c>
     </row>
     <row r="5210" spans="1:2">
@@ -42071,7 +42071,7 @@
         <v>5216</v>
       </c>
       <c r="B5216">
-        <v>30.69596751835065</v>
+        <v>30.69596751835064</v>
       </c>
     </row>
     <row r="5217" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>235.6757133788688</v>
+        <v>235.6757133788687</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42183,7 +42183,7 @@
         <v>5230</v>
       </c>
       <c r="B5230">
-        <v>142.663464767879</v>
+        <v>142.6634647678789</v>
       </c>
     </row>
     <row r="5231" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>81.32428251813671</v>
+        <v>81.3242825181367</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42303,7 +42303,7 @@
         <v>5245</v>
       </c>
       <c r="B5245">
-        <v>96.63548586196003</v>
+        <v>96.63548586196002</v>
       </c>
     </row>
     <row r="5246" spans="1:2">
@@ -42535,7 +42535,7 @@
         <v>5274</v>
       </c>
       <c r="B5274">
-        <v>157.093110427409</v>
+        <v>157.0931104274089</v>
       </c>
     </row>
     <row r="5275" spans="1:2">
@@ -42671,7 +42671,7 @@
         <v>5291</v>
       </c>
       <c r="B5291">
-        <v>41.08504276785668</v>
+        <v>41.08504276785667</v>
       </c>
     </row>
     <row r="5292" spans="1:2">
@@ -42767,7 +42767,7 @@
         <v>5303</v>
       </c>
       <c r="B5303">
-        <v>59.70853499063053</v>
+        <v>59.70853499063052</v>
       </c>
     </row>
     <row r="5304" spans="1:2">
@@ -42807,7 +42807,7 @@
         <v>5308</v>
       </c>
       <c r="B5308">
-        <v>24.13220200097183</v>
+        <v>24.13220200097182</v>
       </c>
     </row>
     <row r="5309" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>20.5263731696981</v>
+        <v>20.52637316969809</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -42895,7 +42895,7 @@
         <v>5319</v>
       </c>
       <c r="B5319">
-        <v>48.39687211141858</v>
+        <v>48.39687211141857</v>
       </c>
     </row>
     <row r="5320" spans="1:2">
@@ -42975,7 +42975,7 @@
         <v>5329</v>
       </c>
       <c r="B5329">
-        <v>41.96396281280205</v>
+        <v>41.96396281280204</v>
       </c>
     </row>
     <row r="5330" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>22.09770285058477</v>
+        <v>22.09770285058476</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>20.93632093857759</v>
+        <v>20.93632093857758</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43183,7 +43183,7 @@
         <v>5355</v>
       </c>
       <c r="B5355">
-        <v>46.63610131114122</v>
+        <v>46.63610131114121</v>
       </c>
     </row>
     <row r="5356" spans="1:2">
@@ -43215,7 +43215,7 @@
         <v>5359</v>
       </c>
       <c r="B5359">
-        <v>5.315781113447214</v>
+        <v>5.315781113447213</v>
       </c>
     </row>
     <row r="5360" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>53.44589996547624</v>
+        <v>53.44589996547623</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>80.35597580639963</v>
+        <v>80.35597580639961</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>43.39033955796682</v>
+        <v>43.39033955796681</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>89.77967505455518</v>
+        <v>89.77967505455517</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>45.05175927613799</v>
+        <v>45.05175927613798</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>44.61068736295266</v>
+        <v>44.61068736295265</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43631,7 +43631,7 @@
         <v>5411</v>
       </c>
       <c r="B5411">
-        <v>80.12943189351441</v>
+        <v>80.12943189351439</v>
       </c>
     </row>
     <row r="5412" spans="1:2">
@@ -43743,7 +43743,7 @@
         <v>5425</v>
       </c>
       <c r="B5425">
-        <v>73.95325282476522</v>
+        <v>73.9532528247652</v>
       </c>
     </row>
     <row r="5426" spans="1:2">
@@ -43759,7 +43759,7 @@
         <v>5427</v>
       </c>
       <c r="B5427">
-        <v>56.94927116163396</v>
+        <v>56.94927116163395</v>
       </c>
     </row>
     <row r="5428" spans="1:2">
@@ -43791,7 +43791,7 @@
         <v>5431</v>
       </c>
       <c r="B5431">
-        <v>6.890979332044212</v>
+        <v>6.890979332044211</v>
       </c>
     </row>
     <row r="5432" spans="1:2">
@@ -43879,7 +43879,7 @@
         <v>5442</v>
       </c>
       <c r="B5442">
-        <v>167.5088551414332</v>
+        <v>167.5088551414331</v>
       </c>
     </row>
     <row r="5443" spans="1:2">
@@ -43943,7 +43943,7 @@
         <v>5450</v>
       </c>
       <c r="B5450">
-        <v>62.18439912524157</v>
+        <v>62.18439912524156</v>
       </c>
     </row>
     <row r="5451" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>34.16798011337161</v>
+        <v>34.1679801133716</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44023,7 +44023,7 @@
         <v>5460</v>
       </c>
       <c r="B5460">
-        <v>37.57405172469376</v>
+        <v>37.57405172469375</v>
       </c>
     </row>
     <row r="5461" spans="1:2">
@@ -44031,7 +44031,7 @@
         <v>5461</v>
       </c>
       <c r="B5461">
-        <v>40.68500080008394</v>
+        <v>40.68500080008393</v>
       </c>
     </row>
     <row r="5462" spans="1:2">
@@ -44087,7 +44087,7 @@
         <v>5468</v>
       </c>
       <c r="B5468">
-        <v>124.0707450041646</v>
+        <v>124.0707450041645</v>
       </c>
     </row>
     <row r="5469" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>48.95458629799112</v>
+        <v>48.95458629799111</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>48.16739748814675</v>
+        <v>48.16739748814674</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>42.22626139240396</v>
+        <v>42.22626139240395</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44311,7 +44311,7 @@
         <v>5496</v>
       </c>
       <c r="B5496">
-        <v>83.15040816003555</v>
+        <v>83.15040816003554</v>
       </c>
     </row>
     <row r="5497" spans="1:2">
@@ -44343,7 +44343,7 @@
         <v>5500</v>
       </c>
       <c r="B5500">
-        <v>58.5054783769257</v>
+        <v>58.50547837692569</v>
       </c>
     </row>
     <row r="5501" spans="1:2">
@@ -44351,7 +44351,7 @@
         <v>5501</v>
       </c>
       <c r="B5501">
-        <v>54.33243985742681</v>
+        <v>54.3324398574268</v>
       </c>
     </row>
     <row r="5502" spans="1:2">
@@ -44359,7 +44359,7 @@
         <v>5502</v>
       </c>
       <c r="B5502">
-        <v>53.86147469829803</v>
+        <v>53.86147469829802</v>
       </c>
     </row>
     <row r="5503" spans="1:2">
@@ -44527,7 +44527,7 @@
         <v>5523</v>
       </c>
       <c r="B5523">
-        <v>60.90045490486622</v>
+        <v>60.90045490486621</v>
       </c>
     </row>
     <row r="5524" spans="1:2">
@@ -44655,7 +44655,7 @@
         <v>5539</v>
       </c>
       <c r="B5539">
-        <v>164.270713235264</v>
+        <v>164.2707132352639</v>
       </c>
     </row>
     <row r="5540" spans="1:2">
@@ -44695,7 +44695,7 @@
         <v>5544</v>
       </c>
       <c r="B5544">
-        <v>85.66261310344061</v>
+        <v>85.66261310344059</v>
       </c>
     </row>
     <row r="5545" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>60.18213778910726</v>
+        <v>60.18213778910725</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>88.44180576306614</v>
+        <v>88.44180576306613</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44887,7 +44887,7 @@
         <v>5568</v>
       </c>
       <c r="B5568">
-        <v>89.19148147996187</v>
+        <v>89.19148147996185</v>
       </c>
     </row>
     <row r="5569" spans="1:2">
@@ -44903,7 +44903,7 @@
         <v>5570</v>
       </c>
       <c r="B5570">
-        <v>70.10376473194844</v>
+        <v>70.10376473194843</v>
       </c>
     </row>
     <row r="5571" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>41.09998939082841</v>
+        <v>41.0999893908284</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>48.68466787138402</v>
+        <v>48.68466787138401</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45111,7 +45111,7 @@
         <v>5596</v>
       </c>
       <c r="B5596">
-        <v>27.12542444013175</v>
+        <v>27.12542444013174</v>
       </c>
     </row>
     <row r="5597" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>22.72935886021157</v>
+        <v>22.72935886021156</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>40.49890069053399</v>
+        <v>40.49890069053398</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45455,7 +45455,7 @@
         <v>5639</v>
       </c>
       <c r="B5639">
-        <v>71.23501894118124</v>
+        <v>71.23501894118122</v>
       </c>
     </row>
     <row r="5640" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>49.76199700950313</v>
+        <v>49.76199700950312</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45743,7 +45743,7 @@
         <v>5675</v>
       </c>
       <c r="B5675">
-        <v>58.9922693721422</v>
+        <v>58.99226937214219</v>
       </c>
     </row>
     <row r="5676" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>87.08459378302545</v>
+        <v>87.08459378302544</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45815,7 +45815,7 @@
         <v>5684</v>
       </c>
       <c r="B5684">
-        <v>122.4732147724216</v>
+        <v>122.4732147724215</v>
       </c>
     </row>
     <row r="5685" spans="1:2">
@@ -45887,7 +45887,7 @@
         <v>5693</v>
       </c>
       <c r="B5693">
-        <v>48.74298900807763</v>
+        <v>48.74298900807762</v>
       </c>
     </row>
     <row r="5694" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>9.166265647795433</v>
+        <v>9.166265647795431</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>88.06022727072907</v>
+        <v>88.06022727072906</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>61.75915304814396</v>
+        <v>61.75915304814395</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>54.14135754021961</v>
+        <v>54.1413575402196</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>94.84716638404851</v>
+        <v>94.84716638404848</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46263,7 +46263,7 @@
         <v>5740</v>
       </c>
       <c r="B5740">
-        <v>47.0540206122723</v>
+        <v>47.05402061227229</v>
       </c>
     </row>
     <row r="5741" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>49.52285104195547</v>
+        <v>49.52285104195546</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46639,7 +46639,7 @@
         <v>5787</v>
       </c>
       <c r="B5787">
-        <v>42.54219197208089</v>
+        <v>42.54219197208088</v>
       </c>
     </row>
     <row r="5788" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>45.54558397628235</v>
+        <v>45.54558397628234</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -47023,7 +47023,7 @@
         <v>5835</v>
       </c>
       <c r="B5835">
-        <v>52.27918416056542</v>
+        <v>52.27918416056541</v>
       </c>
     </row>
     <row r="5836" spans="1:2">
@@ -47031,7 +47031,7 @@
         <v>5836</v>
       </c>
       <c r="B5836">
-        <v>48.8804393252098</v>
+        <v>48.88043932520979</v>
       </c>
     </row>
     <row r="5837" spans="1:2">
@@ -47223,7 +47223,7 @@
         <v>5860</v>
       </c>
       <c r="B5860">
-        <v>58.5312686283279</v>
+        <v>58.53126862832789</v>
       </c>
     </row>
     <row r="5861" spans="1:2">
@@ -47239,7 +47239,7 @@
         <v>5862</v>
       </c>
       <c r="B5862">
-        <v>54.18473205394149</v>
+        <v>54.18473205394148</v>
       </c>
     </row>
     <row r="5863" spans="1:2">
@@ -47367,7 +47367,7 @@
         <v>5878</v>
       </c>
       <c r="B5878">
-        <v>98.57356464062752</v>
+        <v>98.5735646406275</v>
       </c>
     </row>
     <row r="5879" spans="1:2">
@@ -47487,7 +47487,7 @@
         <v>5893</v>
       </c>
       <c r="B5893">
-        <v>50.11602682420603</v>
+        <v>50.11602682420602</v>
       </c>
     </row>
     <row r="5894" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>166.5604772603251</v>
+        <v>166.560477260325</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>73.67571455115292</v>
+        <v>73.67571455115291</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47583,7 +47583,7 @@
         <v>5905</v>
       </c>
       <c r="B5905">
-        <v>57.49965857223997</v>
+        <v>57.49965857223996</v>
       </c>
     </row>
     <row r="5906" spans="1:2">
@@ -47623,7 +47623,7 @@
         <v>5910</v>
       </c>
       <c r="B5910">
-        <v>33.0595854451544</v>
+        <v>33.05958544515439</v>
       </c>
     </row>
     <row r="5911" spans="1:2">
@@ -47663,7 +47663,7 @@
         <v>5915</v>
       </c>
       <c r="B5915">
-        <v>57.56823719528672</v>
+        <v>57.56823719528671</v>
       </c>
     </row>
     <row r="5916" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>77.88157702698189</v>
+        <v>77.88157702698187</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47751,7 +47751,7 @@
         <v>5926</v>
       </c>
       <c r="B5926">
-        <v>89.8174812185425</v>
+        <v>89.81748121854248</v>
       </c>
     </row>
     <row r="5927" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>39.61236079858342</v>
+        <v>39.61236079858341</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -47975,7 +47975,7 @@
         <v>5954</v>
       </c>
       <c r="B5954">
-        <v>59.56053411610655</v>
+        <v>59.56053411610654</v>
       </c>
     </row>
     <row r="5955" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>49.76492771988974</v>
+        <v>49.76492771988973</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>93.34576345298645</v>
+        <v>93.34576345298642</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48231,7 +48231,7 @@
         <v>5986</v>
       </c>
       <c r="B5986">
-        <v>70.07328534392767</v>
+        <v>70.07328534392765</v>
       </c>
     </row>
     <row r="5987" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>86.10837415324451</v>
+        <v>86.1083741532445</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>92.90527768187845</v>
+        <v>92.90527768187842</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48335,7 +48335,7 @@
         <v>5999</v>
       </c>
       <c r="B5999">
-        <v>87.49196252676472</v>
+        <v>87.49196252676471</v>
       </c>
     </row>
     <row r="6000" spans="1:2">
@@ -48375,7 +48375,7 @@
         <v>6004</v>
       </c>
       <c r="B6004">
-        <v>49.15856374089942</v>
+        <v>49.15856374089941</v>
       </c>
     </row>
     <row r="6005" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>45.69094721145838</v>
+        <v>45.69094721145837</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48423,7 +48423,7 @@
         <v>6010</v>
       </c>
       <c r="B6010">
-        <v>53.49220518958473</v>
+        <v>53.49220518958472</v>
       </c>
     </row>
     <row r="6011" spans="1:2">
@@ -48543,7 +48543,7 @@
         <v>6025</v>
       </c>
       <c r="B6025">
-        <v>66.56551808219002</v>
+        <v>66.56551808219001</v>
       </c>
     </row>
     <row r="6026" spans="1:2">
@@ -48559,7 +48559,7 @@
         <v>6027</v>
       </c>
       <c r="B6027">
-        <v>52.89580562590889</v>
+        <v>52.89580562590888</v>
       </c>
     </row>
     <row r="6028" spans="1:2">
@@ -48567,7 +48567,7 @@
         <v>6028</v>
       </c>
       <c r="B6028">
-        <v>47.40570585866591</v>
+        <v>47.4057058586659</v>
       </c>
     </row>
     <row r="6029" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>5.876660467237296</v>
+        <v>5.876660467237295</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48599,7 +48599,7 @@
         <v>6032</v>
       </c>
       <c r="B6032">
-        <v>15.85707746043395</v>
+        <v>15.85707746043394</v>
       </c>
     </row>
     <row r="6033" spans="1:2">
@@ -48743,7 +48743,7 @@
         <v>6050</v>
       </c>
       <c r="B6050">
-        <v>47.39017309361686</v>
+        <v>47.39017309361685</v>
       </c>
     </row>
     <row r="6051" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>3.821382580209148</v>
+        <v>3.821382580209147</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>9.568007427592406</v>
+        <v>9.568007427592404</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48863,7 +48863,7 @@
         <v>6065</v>
       </c>
       <c r="B6065">
-        <v>85.08438394416177</v>
+        <v>85.08438394416176</v>
       </c>
     </row>
     <row r="6066" spans="1:2">
@@ -48943,7 +48943,7 @@
         <v>6075</v>
       </c>
       <c r="B6075">
-        <v>38.31053924484972</v>
+        <v>38.31053924484971</v>
       </c>
     </row>
     <row r="6076" spans="1:2">
@@ -49111,7 +49111,7 @@
         <v>6096</v>
       </c>
       <c r="B6096">
-        <v>64.70305163149717</v>
+        <v>64.70305163149716</v>
       </c>
     </row>
     <row r="6097" spans="1:2">
@@ -49167,7 +49167,7 @@
         <v>6103</v>
       </c>
       <c r="B6103">
-        <v>3.53508148254088</v>
+        <v>3.535081482540879</v>
       </c>
     </row>
     <row r="6104" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>36.20101390856536</v>
+        <v>36.20101390856535</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49223,7 +49223,7 @@
         <v>6110</v>
       </c>
       <c r="B6110">
-        <v>51.95328916557401</v>
+        <v>51.953289165574</v>
       </c>
     </row>
     <row r="6111" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>80.52156094324329</v>
+        <v>80.52156094324327</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49295,7 +49295,7 @@
         <v>6119</v>
       </c>
       <c r="B6119">
-        <v>65.42898859426133</v>
+        <v>65.42898859426131</v>
       </c>
     </row>
     <row r="6120" spans="1:2">
@@ -49311,7 +49311,7 @@
         <v>6121</v>
       </c>
       <c r="B6121">
-        <v>47.72925628534804</v>
+        <v>47.72925628534803</v>
       </c>
     </row>
     <row r="6122" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>24.96434790814685</v>
+        <v>24.96434790814684</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>47.05636518058159</v>
+        <v>47.05636518058158</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>43.94570917623007</v>
+        <v>43.94570917623006</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>53.38259662112539</v>
+        <v>53.38259662112538</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>94.98490977221934</v>
+        <v>94.98490977221932</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -49679,7 +49679,7 @@
         <v>6167</v>
       </c>
       <c r="B6167">
-        <v>90.94609778842734</v>
+        <v>90.94609778842732</v>
       </c>
     </row>
     <row r="6168" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>49.94545947970513</v>
+        <v>49.94545947970512</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49903,7 +49903,7 @@
         <v>6195</v>
       </c>
       <c r="B6195">
-        <v>43.27838642119819</v>
+        <v>43.27838642119818</v>
       </c>
     </row>
     <row r="6196" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>4.957882761033979</v>
+        <v>4.957882761033978</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>25.79678688636054</v>
+        <v>25.79678688636053</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>45.68362043549185</v>
+        <v>45.68362043549184</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>84.61810792165157</v>
+        <v>84.61810792165156</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50287,7 +50287,7 @@
         <v>6243</v>
       </c>
       <c r="B6243">
-        <v>65.64820573118001</v>
+        <v>65.64820573118</v>
       </c>
     </row>
     <row r="6244" spans="1:2">
@@ -50327,7 +50327,7 @@
         <v>6248</v>
       </c>
       <c r="B6248">
-        <v>16.00235277429838</v>
+        <v>16.00235277429837</v>
       </c>
     </row>
     <row r="6249" spans="1:2">
@@ -50479,7 +50479,7 @@
         <v>6267</v>
       </c>
       <c r="B6267">
-        <v>47.84912234016053</v>
+        <v>47.84912234016052</v>
       </c>
     </row>
     <row r="6268" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>64.72620424355142</v>
+        <v>64.72620424355141</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>89.06106486775757</v>
+        <v>89.06106486775755</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>8.948250102135258</v>
+        <v>8.948250102135257</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>7.24946382653477</v>
+        <v>7.249463826534769</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>6.727973220340772</v>
+        <v>6.727973220340771</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>30.83107326717353</v>
+        <v>30.83107326717352</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>37.55617439133542</v>
+        <v>37.55617439133541</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>12.61456879578869</v>
+        <v>12.61456879578868</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51079,7 +51079,7 @@
         <v>6342</v>
       </c>
       <c r="B6342">
-        <v>6.857305469702023</v>
+        <v>6.857305469702022</v>
       </c>
     </row>
     <row r="6343" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>7.571578205127454</v>
+        <v>7.571578205127453</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51167,7 +51167,7 @@
         <v>6353</v>
       </c>
       <c r="B6353">
-        <v>63.08148957458395</v>
+        <v>63.08148957458394</v>
       </c>
     </row>
     <row r="6354" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>49.06155722710251</v>
+        <v>49.0615572271025</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>66.10656883564636</v>
+        <v>66.10656883564634</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>2.08384352116647</v>
+        <v>2.083843521166469</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51743,7 +51743,7 @@
         <v>6425</v>
       </c>
       <c r="B6425">
-        <v>57.28014836428262</v>
+        <v>57.28014836428261</v>
       </c>
     </row>
     <row r="6426" spans="1:2">
@@ -52015,7 +52015,7 @@
         <v>6459</v>
       </c>
       <c r="B6459">
-        <v>30.98405634935475</v>
+        <v>30.98405634935474</v>
       </c>
     </row>
     <row r="6460" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>74.73545942695235</v>
+        <v>74.73545942695233</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52119,7 +52119,7 @@
         <v>6472</v>
       </c>
       <c r="B6472">
-        <v>87.80261782774575</v>
+        <v>87.80261782774573</v>
       </c>
     </row>
     <row r="6473" spans="1:2">
@@ -52167,7 +52167,7 @@
         <v>6478</v>
       </c>
       <c r="B6478">
-        <v>74.21555140436712</v>
+        <v>74.2155514043671</v>
       </c>
     </row>
     <row r="6479" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>30.8032315185007</v>
+        <v>30.80323151850069</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>8.368819351597912</v>
+        <v>8.36881935159791</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>3.821617037040077</v>
+        <v>3.821617037040076</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52551,7 +52551,7 @@
         <v>6526</v>
       </c>
       <c r="B6526">
-        <v>79.40554642802088</v>
+        <v>79.40554642802087</v>
       </c>
     </row>
     <row r="6527" spans="1:2">
@@ -52671,7 +52671,7 @@
         <v>6541</v>
       </c>
       <c r="B6541">
-        <v>59.81286828039397</v>
+        <v>59.81286828039396</v>
       </c>
     </row>
     <row r="6542" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>65.20508232072406</v>
+        <v>65.20508232072405</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52687,7 +52687,7 @@
         <v>6543</v>
       </c>
       <c r="B6543">
-        <v>66.62383921888363</v>
+        <v>66.62383921888362</v>
       </c>
     </row>
     <row r="6544" spans="1:2">
@@ -52743,7 +52743,7 @@
         <v>6550</v>
       </c>
       <c r="B6550">
-        <v>71.33964530198334</v>
+        <v>71.33964530198332</v>
       </c>
     </row>
     <row r="6551" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>4.367168775508171</v>
+        <v>4.36716877550817</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>77.90267814176551</v>
+        <v>77.90267814176549</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>8.294965449855253</v>
+        <v>8.294965449855251</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>3.717283747276638</v>
+        <v>3.717283747276637</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>7.016120665552607</v>
+        <v>7.016120665552606</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>47.91506332385933</v>
+        <v>47.91506332385932</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53151,7 +53151,7 @@
         <v>6601</v>
       </c>
       <c r="B6601">
-        <v>7.42331356666868</v>
+        <v>7.423313566668679</v>
       </c>
     </row>
     <row r="6602" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>3.930346392383436</v>
+        <v>3.930346392383435</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53351,7 +53351,7 @@
         <v>6626</v>
       </c>
       <c r="B6626">
-        <v>4.284317592878609</v>
+        <v>4.284317592878608</v>
       </c>
     </row>
     <row r="6627" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>3.090111724541359</v>
+        <v>3.090111724541358</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>6.070204581169249</v>
+        <v>6.070204581169248</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>13.1208197079723</v>
+        <v>13.12081970797229</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>40.49128084352879</v>
+        <v>40.49128084352878</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>88.49602390521849</v>
+        <v>88.49602390521848</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>7.696719538635849</v>
+        <v>7.696719538635848</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>7.651615905785868</v>
+        <v>7.651615905785867</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>64.62157788274932</v>
+        <v>64.62157788274931</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53663,7 +53663,7 @@
         <v>6665</v>
       </c>
       <c r="B6665">
-        <v>58.56409258465797</v>
+        <v>58.56409258465796</v>
       </c>
     </row>
     <row r="6666" spans="1:2">
@@ -53695,7 +53695,7 @@
         <v>6669</v>
       </c>
       <c r="B6669">
-        <v>58.94655029011103</v>
+        <v>58.94655029011102</v>
       </c>
     </row>
     <row r="6670" spans="1:2">
@@ -53919,7 +53919,7 @@
         <v>6697</v>
       </c>
       <c r="B6697">
-        <v>22.95218077090579</v>
+        <v>22.95218077090578</v>
       </c>
     </row>
     <row r="6698" spans="1:2">
@@ -53951,7 +53951,7 @@
         <v>6701</v>
       </c>
       <c r="B6701">
-        <v>8.461019500360772</v>
+        <v>8.46101950036077</v>
       </c>
     </row>
     <row r="6702" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>29.05972260240049</v>
+        <v>29.05972260240048</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54119,7 +54119,7 @@
         <v>6722</v>
       </c>
       <c r="B6722">
-        <v>33.78083327129997</v>
+        <v>33.78083327129996</v>
       </c>
     </row>
     <row r="6723" spans="1:2">
@@ -54183,7 +54183,7 @@
         <v>6730</v>
       </c>
       <c r="B6730">
-        <v>35.28399462859401</v>
+        <v>35.283994628594</v>
       </c>
     </row>
     <row r="6731" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>49.14068640754108</v>
+        <v>49.14068640754107</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54207,7 +54207,7 @@
         <v>6733</v>
       </c>
       <c r="B6733">
-        <v>53.0458579977035</v>
+        <v>53.04585799770349</v>
       </c>
     </row>
     <row r="6734" spans="1:2">
@@ -54263,7 +54263,7 @@
         <v>6740</v>
       </c>
       <c r="B6740">
-        <v>86.29447426279447</v>
+        <v>86.29447426279445</v>
       </c>
     </row>
     <row r="6741" spans="1:2">
@@ -54271,7 +54271,7 @@
         <v>6741</v>
       </c>
       <c r="B6741">
-        <v>77.28078139772613</v>
+        <v>77.28078139772612</v>
       </c>
     </row>
     <row r="6742" spans="1:2">
@@ -54327,7 +54327,7 @@
         <v>6748</v>
       </c>
       <c r="B6748">
-        <v>30.23496677453635</v>
+        <v>30.23496677453634</v>
       </c>
     </row>
     <row r="6749" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>3.379167689973044</v>
+        <v>3.379167689973043</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>5.291895823796314</v>
+        <v>5.291895823796313</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>29.51782194293204</v>
+        <v>29.51782194293203</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>92.90586382395576</v>
+        <v>92.90586382395574</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54479,7 +54479,7 @@
         <v>6767</v>
       </c>
       <c r="B6767">
-        <v>32.00482277701222</v>
+        <v>32.00482277701221</v>
       </c>
     </row>
     <row r="6768" spans="1:2">
@@ -54639,7 +54639,7 @@
         <v>6787</v>
       </c>
       <c r="B6787">
-        <v>54.29932283005808</v>
+        <v>54.29932283005807</v>
       </c>
     </row>
     <row r="6788" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>2.533613782779263</v>
+        <v>2.533613782779262</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>0.7132000954239303</v>
+        <v>0.7132000954239301</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>6.834270086063242</v>
+        <v>6.834270086063241</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>9.93880090570674</v>
+        <v>9.938800905706737</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>50.37891154588526</v>
+        <v>50.37891154588525</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54831,7 +54831,7 @@
         <v>6811</v>
       </c>
       <c r="B6811">
-        <v>38.18305334303204</v>
+        <v>38.18305334303203</v>
       </c>
     </row>
     <row r="6812" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>0.7186277710599384</v>
+        <v>0.7186277710599382</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -54983,7 +54983,7 @@
         <v>6830</v>
       </c>
       <c r="B6830">
-        <v>6.608839843124935</v>
+        <v>6.608839843124934</v>
       </c>
     </row>
     <row r="6831" spans="1:2">
@@ -55071,7 +55071,7 @@
         <v>6841</v>
       </c>
       <c r="B6841">
-        <v>2.031700321967844</v>
+        <v>2.031700321967843</v>
       </c>
     </row>
     <row r="6842" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>0.5557388877719627</v>
+        <v>0.5557388877719626</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55159,7 +55159,7 @@
         <v>6852</v>
       </c>
       <c r="B6852">
-        <v>5.261152671840739</v>
+        <v>5.261152671840738</v>
       </c>
     </row>
     <row r="6853" spans="1:2">
@@ -55199,7 +55199,7 @@
         <v>6857</v>
       </c>
       <c r="B6857">
-        <v>31.97903252561002</v>
+        <v>31.97903252561001</v>
       </c>
     </row>
     <row r="6858" spans="1:2">
@@ -55327,7 +55327,7 @@
         <v>6873</v>
       </c>
       <c r="B6873">
-        <v>0.5689329459324964</v>
+        <v>0.5689329459324963</v>
       </c>
     </row>
     <row r="6874" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>0.8103648675817127</v>
+        <v>0.8103648675817126</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>24.02112807731918</v>
+        <v>24.02112807731917</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>2.74842606198687</v>
+        <v>2.748426061986869</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>0.718387452808236</v>
+        <v>0.7183874528082359</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55559,7 +55559,7 @@
         <v>6902</v>
       </c>
       <c r="B6902">
-        <v>14.15140401542492</v>
+        <v>14.15140401542491</v>
       </c>
     </row>
     <row r="6903" spans="1:2">
@@ -55591,7 +55591,7 @@
         <v>6906</v>
       </c>
       <c r="B6906">
-        <v>63.36137241650553</v>
+        <v>63.36137241650552</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -55599,7 +55599,7 @@
         <v>6907</v>
       </c>
       <c r="B6907">
-        <v>48.86519963119941</v>
+        <v>48.8651996311994</v>
       </c>
     </row>
     <row r="6908" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>1.385267670571741</v>
+        <v>1.38526767057174</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55719,7 +55719,7 @@
         <v>6922</v>
       </c>
       <c r="B6922">
-        <v>2.092647375167857</v>
+        <v>2.092647375167856</v>
       </c>
     </row>
     <row r="6923" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>3.990015655854886</v>
+        <v>3.990015655854885</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55895,7 +55895,7 @@
         <v>6944</v>
       </c>
       <c r="B6944">
-        <v>0.527190837895961</v>
+        <v>0.5271908378959609</v>
       </c>
     </row>
     <row r="6945" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>0.9750326920743628</v>
+        <v>0.9750326920743626</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>5.022680767682002</v>
+        <v>5.022680767682001</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>6.899156014022864</v>
+        <v>6.899156014022863</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>47.01064609855042</v>
+        <v>47.01064609855041</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>45.0107293307254</v>
+        <v>45.01072933072539</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56287,7 +56287,7 @@
         <v>6993</v>
       </c>
       <c r="B6993">
-        <v>5.125841773290795</v>
+        <v>5.125841773290794</v>
       </c>
     </row>
     <row r="6994" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>54.0777611248301</v>
+        <v>54.07776112483009</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56391,7 +56391,7 @@
         <v>7006</v>
       </c>
       <c r="B7006">
-        <v>55.85377161911785</v>
+        <v>55.85377161911784</v>
       </c>
     </row>
     <row r="7007" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>35.24062011487213</v>
+        <v>35.24062011487212</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>83.7922337347039</v>
+        <v>83.79223373470388</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56759,7 +56759,7 @@
         <v>7052</v>
       </c>
       <c r="B7052">
-        <v>62.24858168270841</v>
+        <v>62.2485816827084</v>
       </c>
     </row>
     <row r="7053" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>26.82493870419227</v>
+        <v>26.82493870419226</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -56903,7 +56903,7 @@
         <v>7070</v>
       </c>
       <c r="B7070">
-        <v>42.82236788504113</v>
+        <v>42.82236788504112</v>
       </c>
     </row>
     <row r="7071" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>52.36358861969989</v>
+        <v>52.36358861969988</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57191,7 +57191,7 @@
         <v>7106</v>
       </c>
       <c r="B7106">
-        <v>31.41838762865087</v>
+        <v>31.41838762865086</v>
       </c>
     </row>
     <row r="7107" spans="1:2">
@@ -57239,7 +57239,7 @@
         <v>7112</v>
       </c>
       <c r="B7112">
-        <v>3.821001587858888</v>
+        <v>3.821001587858887</v>
       </c>
     </row>
     <row r="7113" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>10.56037527160359</v>
+        <v>10.56037527160358</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>37.26075878436478</v>
+        <v>37.26075878436477</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57367,7 +57367,7 @@
         <v>7128</v>
       </c>
       <c r="B7128">
-        <v>41.49241151159595</v>
+        <v>41.49241151159594</v>
       </c>
     </row>
     <row r="7129" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>34.89655471548371</v>
+        <v>34.8965547154837</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>4.993373663815867</v>
+        <v>4.993373663815866</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>45.29618052238155</v>
+        <v>45.29618052238154</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57655,7 +57655,7 @@
         <v>7164</v>
       </c>
       <c r="B7164">
-        <v>4.299645208200597</v>
+        <v>4.299645208200596</v>
       </c>
     </row>
     <row r="7165" spans="1:2">
@@ -57855,7 +57855,7 @@
         <v>7189</v>
       </c>
       <c r="B7189">
-        <v>5.473365410935419</v>
+        <v>5.473365410935418</v>
       </c>
     </row>
     <row r="7190" spans="1:2">
@@ -57863,7 +57863,7 @@
         <v>7190</v>
       </c>
       <c r="B7190">
-        <v>7.057707445938652</v>
+        <v>7.057707445938651</v>
       </c>
     </row>
     <row r="7191" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>6.544393521723306</v>
+        <v>6.544393521723305</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58023,7 +58023,7 @@
         <v>7210</v>
       </c>
       <c r="B7210">
-        <v>3.963404805544436</v>
+        <v>3.963404805544435</v>
       </c>
     </row>
     <row r="7211" spans="1:2">
@@ -58055,7 +58055,7 @@
         <v>7214</v>
       </c>
       <c r="B7214">
-        <v>19.31191609258935</v>
+        <v>19.31191609258934</v>
       </c>
     </row>
     <row r="7215" spans="1:2">
@@ -58095,7 +58095,7 @@
         <v>7219</v>
       </c>
       <c r="B7219">
-        <v>50.89325121873592</v>
+        <v>50.89325121873591</v>
       </c>
     </row>
     <row r="7220" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>3.345054221072863</v>
+        <v>3.345054221072862</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58207,7 +58207,7 @@
         <v>7233</v>
       </c>
       <c r="B7233">
-        <v>0.578815301356157</v>
+        <v>0.5788153013561569</v>
       </c>
     </row>
     <row r="7234" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>21.39040520587948</v>
+        <v>21.39040520587947</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>0.8782166744525873</v>
+        <v>0.8782166744525872</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58367,7 +58367,7 @@
         <v>7253</v>
       </c>
       <c r="B7253">
-        <v>0.8844415033137544</v>
+        <v>0.8844415033137543</v>
       </c>
     </row>
     <row r="7254" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>0.6329836214319334</v>
+        <v>0.6329836214319333</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58391,7 +58391,7 @@
         <v>7256</v>
       </c>
       <c r="B7256">
-        <v>0.4371975140542217</v>
+        <v>0.4371975140542216</v>
       </c>
     </row>
     <row r="7257" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>0.2508037473235288</v>
+        <v>0.2508037473235287</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>14.56894232420574</v>
+        <v>14.56894232420573</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>40.87344547794319</v>
+        <v>40.87344547794318</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>30.7979562398048</v>
+        <v>30.79795623980479</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>2.209453768336723</v>
+        <v>2.209453768336722</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>3.993766965149751</v>
+        <v>3.99376696514975</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>5.208927412751287</v>
+        <v>5.208927412751286</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>0.523225586742873</v>
+        <v>0.5232255867428729</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>2.660003598912355</v>
+        <v>2.660003598912354</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59031,7 +59031,7 @@
         <v>7336</v>
       </c>
       <c r="B7336">
-        <v>14.42108798520109</v>
+        <v>14.42108798520108</v>
       </c>
     </row>
     <row r="7337" spans="1:2">
@@ -59103,7 +59103,7 @@
         <v>7345</v>
       </c>
       <c r="B7345">
-        <v>0.7818871547549897</v>
+        <v>0.7818871547549896</v>
       </c>
     </row>
     <row r="7346" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>2.81837625749456</v>
+        <v>2.818376257494559</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59279,7 +59279,7 @@
         <v>7367</v>
       </c>
       <c r="B7367">
-        <v>4.81389695973966</v>
+        <v>4.813896959739659</v>
       </c>
     </row>
     <row r="7368" spans="1:2">
@@ -59423,7 +59423,7 @@
         <v>7385</v>
       </c>
       <c r="B7385">
-        <v>6.522413193823705</v>
+        <v>6.522413193823704</v>
       </c>
     </row>
     <row r="7386" spans="1:2">
@@ -59439,7 +59439,7 @@
         <v>7387</v>
       </c>
       <c r="B7387">
-        <v>20.78916997006573</v>
+        <v>20.78916997006572</v>
       </c>
     </row>
     <row r="7388" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>0.5624677988196272</v>
+        <v>0.5624677988196271</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>0.458128647635415</v>
+        <v>0.4581286476354149</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>33.7093239378666</v>
+        <v>33.70932393786659</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59991,7 +59991,7 @@
         <v>7456</v>
       </c>
       <c r="B7456">
-        <v>29.06444104612294</v>
+        <v>29.06444104612293</v>
       </c>
     </row>
     <row r="7457" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>3.305313788230385</v>
+        <v>3.305313788230384</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>0.7821040273235992</v>
+        <v>0.7821040273235991</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>0.5294709305767463</v>
+        <v>0.5294709305767462</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60447,7 +60447,7 @@
         <v>7513</v>
       </c>
       <c r="B7513">
-        <v>0.4603618489500144</v>
+        <v>0.4603618489500143</v>
       </c>
     </row>
     <row r="7514" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>0.3473800328356792</v>
+        <v>0.3473800328356791</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>0.6155048646861708</v>
+        <v>0.6155048646861707</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60615,7 +60615,7 @@
         <v>7534</v>
       </c>
       <c r="B7534">
-        <v>0.7234282746732112</v>
+        <v>0.7234282746732111</v>
       </c>
     </row>
     <row r="7535" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>0.307516510156963</v>
+        <v>0.3075165101569629</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60759,7 +60759,7 @@
         <v>7552</v>
       </c>
       <c r="B7552">
-        <v>7.840324347579908</v>
+        <v>7.840324347579907</v>
       </c>
     </row>
     <row r="7553" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>0.9279918596588302</v>
+        <v>0.92799185965883</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>0.367472983246301</v>
+        <v>0.3674729832463009</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>5.766084764350371</v>
+        <v>5.76608476435037</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>6.465235034180876</v>
+        <v>6.465235034180875</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60999,7 +60999,7 @@
         <v>7582</v>
       </c>
       <c r="B7582">
-        <v>3.389014876872065</v>
+        <v>3.389014876872064</v>
       </c>
     </row>
     <row r="7583" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>0.4264740447496031</v>
+        <v>0.426474044749603</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>1.351089726043055</v>
+        <v>1.351089726043054</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61239,7 +61239,7 @@
         <v>7612</v>
       </c>
       <c r="B7612">
-        <v>0.3049433464375164</v>
+        <v>0.3049433464375163</v>
       </c>
     </row>
     <row r="7613" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>0.4990442953429254</v>
+        <v>0.4990442953429253</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61623,7 +61623,7 @@
         <v>7660</v>
       </c>
       <c r="B7660">
-        <v>0.4555173846809424</v>
+        <v>0.4555173846809423</v>
       </c>
     </row>
     <row r="7661" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>0.4331414108791487</v>
+        <v>0.4331414108791486</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61655,7 +61655,7 @@
         <v>7664</v>
       </c>
       <c r="B7664">
-        <v>0.3672326649945987</v>
+        <v>0.3672326649945986</v>
       </c>
     </row>
     <row r="7665" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>0.5882346045387327</v>
+        <v>0.5882346045387326</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>1.438597807476946</v>
+        <v>1.438597807476945</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>0.7739156225034012</v>
+        <v>0.7739156225034011</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>0.2634257308165956</v>
+        <v>0.2634257308165955</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>3.525380831161189</v>
+        <v>3.525380831161188</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>4.474550004073688</v>
+        <v>4.474550004073687</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61919,7 +61919,7 @@
         <v>7697</v>
       </c>
       <c r="B7697">
-        <v>1.311906128174033</v>
+        <v>1.311906128174032</v>
       </c>
     </row>
     <row r="7698" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>3.954466138865265</v>
+        <v>3.954466138865264</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>0.6218615755147354</v>
+        <v>0.6218615755147353</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>0.5080591604921484</v>
+        <v>0.5080591604921483</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62087,7 +62087,7 @@
         <v>7718</v>
       </c>
       <c r="B7718">
-        <v>6.306507759641892</v>
+        <v>6.306507759641891</v>
       </c>
     </row>
     <row r="7719" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>0.7605398602988974</v>
+        <v>0.7605398602988973</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>2.846314719610146</v>
+        <v>2.846314719610145</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62583,7 +62583,7 @@
         <v>7780</v>
       </c>
       <c r="B7780">
-        <v>0.6250853569400102</v>
+        <v>0.6250853569400101</v>
       </c>
     </row>
     <row r="7781" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>0.5279088619406813</v>
+        <v>0.5279088619406812</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>4.837606406767362</v>
+        <v>4.837606406767361</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>0.8957774910891751</v>
+        <v>0.895777491089175</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62855,7 +62855,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>8.173721961161055</v>
+        <v>8.173721961161053</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>4.168701068126708</v>
+        <v>4.168701068126707</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>7.341869125024692</v>
+        <v>7.341869125024691</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -63055,7 +63055,7 @@
         <v>7839</v>
       </c>
       <c r="B7839">
-        <v>22.8892584189052</v>
+        <v>22.88925841890519</v>
       </c>
     </row>
     <row r="7840" spans="1:2">
@@ -63103,7 +63103,7 @@
         <v>7845</v>
       </c>
       <c r="B7845">
-        <v>56.27374241751956</v>
+        <v>56.27374241751955</v>
       </c>
     </row>
     <row r="7846" spans="1:2">
@@ -63111,7 +63111,7 @@
         <v>7846</v>
       </c>
       <c r="B7846">
-        <v>52.17748851014994</v>
+        <v>52.17748851014993</v>
       </c>
     </row>
     <row r="7847" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>46.22345728870605</v>
+        <v>46.22345728870604</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63135,7 +63135,7 @@
         <v>7849</v>
       </c>
       <c r="B7849">
-        <v>27.49123571058884</v>
+        <v>27.49123571058883</v>
       </c>
     </row>
     <row r="7850" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>15.69436441976917</v>
+        <v>15.69436441976916</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63191,7 +63191,7 @@
         <v>7856</v>
       </c>
       <c r="B7856">
-        <v>1.912396963549583</v>
+        <v>1.912396963549582</v>
       </c>
     </row>
     <row r="7857" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>80.93156732633051</v>
+        <v>80.93156732633049</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>5.764560794949332</v>
+        <v>5.764560794949331</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>0.932748402616304</v>
+        <v>0.9327484026163038</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>0.7813068740984402</v>
+        <v>0.7813068740984401</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>3.469140498842077</v>
+        <v>3.469140498842076</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63663,7 +63663,7 @@
         <v>7915</v>
       </c>
       <c r="B7915">
-        <v>11.03295232144501</v>
+        <v>11.032952321445</v>
       </c>
     </row>
     <row r="7916" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>8.662359303921116</v>
+        <v>8.662359303921114</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63719,7 +63719,7 @@
         <v>7922</v>
       </c>
       <c r="B7922">
-        <v>0.9041475999533432</v>
+        <v>0.904147599953343</v>
       </c>
     </row>
     <row r="7923" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>0.6042919667469877</v>
+        <v>0.6042919667469876</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63775,7 +63775,7 @@
         <v>7929</v>
       </c>
       <c r="B7929">
-        <v>0.2808112909720639</v>
+        <v>0.2808112909720638</v>
       </c>
     </row>
     <row r="7930" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>6.353047440581313</v>
+        <v>6.353047440581312</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>6.824569434683552</v>
+        <v>6.824569434683551</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>9.7703436726842</v>
+        <v>9.770343672684197</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64215,7 +64215,7 @@
         <v>7984</v>
       </c>
       <c r="B7984">
-        <v>19.94342556669682</v>
+        <v>19.94342556669681</v>
       </c>
     </row>
     <row r="7985" spans="1:2">
@@ -64247,7 +64247,7 @@
         <v>7988</v>
       </c>
       <c r="B7988">
-        <v>47.16597374904093</v>
+        <v>47.16597374904092</v>
       </c>
     </row>
     <row r="7989" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>0.4522349890479353</v>
+        <v>0.4522349890479352</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64447,7 +64447,7 @@
         <v>8013</v>
       </c>
       <c r="B8013">
-        <v>8.701103295232146</v>
+        <v>8.701103295232144</v>
       </c>
     </row>
     <row r="8014" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>0.6968818999912666</v>
+        <v>0.6968818999912665</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64791,7 +64791,7 @@
         <v>8056</v>
       </c>
       <c r="B8056">
-        <v>2.800786133754106</v>
+        <v>2.800786133754105</v>
       </c>
     </row>
     <row r="8057" spans="1:2">
@@ -64799,7 +64799,7 @@
         <v>8057</v>
       </c>
       <c r="B8057">
-        <v>0.8236175399499788</v>
+        <v>0.8236175399499787</v>
       </c>
     </row>
     <row r="8058" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>1.248547100325837</v>
+        <v>1.248547100325836</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>0.5092695438818198</v>
+        <v>0.5092695438818197</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>0.3829676490603264</v>
+        <v>0.3829676490603263</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64983,7 +64983,7 @@
         <v>8080</v>
       </c>
       <c r="B8080">
-        <v>3.833369185690397</v>
+        <v>3.833369185690396</v>
       </c>
     </row>
     <row r="8081" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>6.653269412585996</v>
+        <v>6.653269412585995</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>0.9424637075479276</v>
+        <v>0.9424637075479274</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>0.3894650339874484</v>
+        <v>0.3894650339874483</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>0.819414901255575</v>
+        <v>0.8194149012555749</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65207,7 +65207,7 @@
         <v>8108</v>
       </c>
       <c r="B8108">
-        <v>5.617995968514793</v>
+        <v>5.617995968514792</v>
       </c>
     </row>
     <row r="8109" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>0.3656793884896936</v>
+        <v>0.3656793884896935</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65415,7 +65415,7 @@
         <v>8134</v>
       </c>
       <c r="B8134">
-        <v>2.808701982508349</v>
+        <v>2.808701982508348</v>
       </c>
     </row>
     <row r="8135" spans="1:2">
@@ -65431,7 +65431,7 @@
         <v>8136</v>
       </c>
       <c r="B8136">
-        <v>0.7885603823053086</v>
+        <v>0.7885603823053084</v>
       </c>
     </row>
     <row r="8137" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>0.277263959120107</v>
+        <v>0.2772639591201069</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65599,7 +65599,7 @@
         <v>8157</v>
       </c>
       <c r="B8157">
-        <v>0.7848969943220417</v>
+        <v>0.7848969943220416</v>
       </c>
     </row>
     <row r="8158" spans="1:2">
@@ -65655,7 +65655,7 @@
         <v>8164</v>
       </c>
       <c r="B8164">
-        <v>0.2828478416197216</v>
+        <v>0.2828478416197215</v>
       </c>
     </row>
     <row r="8165" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>0.2570048374305642</v>
+        <v>0.2570048374305641</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>0.182976265348863</v>
+        <v>0.1829762653488629</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>0.7488609794082427</v>
+        <v>0.7488609794082426</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>0.4167059870310204</v>
+        <v>0.4167059870310203</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>0.3332452166410425</v>
+        <v>0.3332452166410424</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>2.072062065412284</v>
+        <v>2.072062065412283</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>0.545167815407448</v>
+        <v>0.5451678154074479</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>0.6362484328026208</v>
+        <v>0.6362484328026207</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66831,7 +66831,7 @@
         <v>8311</v>
       </c>
       <c r="B8311">
-        <v>0.2458546566936546</v>
+        <v>0.2458546566936545</v>
       </c>
     </row>
     <row r="8312" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>0.1722026808966333</v>
+        <v>0.1722026808966332</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>0.3381512258282334</v>
+        <v>0.3381512258282333</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>0.693110075723695</v>
+        <v>0.6931100757236949</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>0.3756496652249526</v>
+        <v>0.3756496652249525</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>0.292410163469164</v>
+        <v>0.2924101634691639</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>0.6528831449570388</v>
+        <v>0.6528831449570387</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67711,7 +67711,7 @@
         <v>8421</v>
       </c>
       <c r="B8421">
-        <v>1.299101854494919</v>
+        <v>1.299101854494918</v>
       </c>
     </row>
     <row r="8422" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>0.4594914279651902</v>
+        <v>0.4594914279651901</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67823,7 +67823,7 @@
         <v>8435</v>
       </c>
       <c r="B8435">
-        <v>0.6635480000539251</v>
+        <v>0.663548000053925</v>
       </c>
     </row>
     <row r="8436" spans="1:2">
@@ -67935,7 +67935,7 @@
         <v>8449</v>
       </c>
       <c r="B8449">
-        <v>0.674224577992358</v>
+        <v>0.6742245779923579</v>
       </c>
     </row>
     <row r="8450" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>0.5080884675960146</v>
+        <v>0.5080884675960144</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>0.4883325488798532</v>
+        <v>0.4883325488798531</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>0.2584740025473735</v>
+        <v>0.2584740025473734</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>0.732361079931609</v>
+        <v>0.7323610799316089</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>1.018090689074488</v>
+        <v>1.018090689074487</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>0.466097249176617</v>
+        <v>0.4660972491766169</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68239,7 +68239,7 @@
         <v>8487</v>
       </c>
       <c r="B8487">
-        <v>0.3111505910363637</v>
+        <v>0.3111505910363636</v>
       </c>
     </row>
     <row r="8488" spans="1:2">
@@ -68287,7 +68287,7 @@
         <v>8493</v>
       </c>
       <c r="B8493">
-        <v>0.7372348513045472</v>
+        <v>0.7372348513045471</v>
       </c>
     </row>
     <row r="8494" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>0.8009250494264307</v>
+        <v>0.8009250494264306</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>0.2867638568383145</v>
+        <v>0.2867638568383144</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>0.4335429182021147</v>
+        <v>0.4335429182021146</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>0.2306093943335301</v>
+        <v>0.23060939433353</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>0.2256371510916017</v>
+        <v>0.2256371510916016</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>0.1444532496009838</v>
+        <v>0.1444532496009837</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -69111,7 +69111,7 @@
         <v>8596</v>
       </c>
       <c r="B8596">
-        <v>0.1300189148048352</v>
+        <v>0.1300189148048351</v>
       </c>
     </row>
     <row r="8597" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>0.2215945291843071</v>
+        <v>0.221594529184307</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>0.514673773834735</v>
+        <v>0.5146737738347349</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69527,7 +69527,7 @@
         <v>8648</v>
       </c>
       <c r="B8648">
-        <v>0.2314053752745343</v>
+        <v>0.2314053752745342</v>
       </c>
     </row>
     <row r="8649" spans="1:2">
@@ -69623,7 +69623,7 @@
         <v>8660</v>
       </c>
       <c r="B8660">
-        <v>0.709653935856128</v>
+        <v>0.7096539358561279</v>
       </c>
     </row>
     <row r="8661" spans="1:2">
@@ -69695,7 +69695,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>0.346017252505904</v>
+        <v>0.3460172525059039</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>0.379535787197602</v>
+        <v>0.3795357871976019</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>0.6549375729380548</v>
+        <v>0.6549375729380547</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>0.4793528522552696</v>
+        <v>0.4793528522552695</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>0.233423755517795</v>
+        <v>0.2334237555177949</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>0.5228739014964794</v>
+        <v>0.5228739014964793</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70087,7 +70087,7 @@
         <v>8718</v>
       </c>
       <c r="B8718">
-        <v>0.487151472594048</v>
+        <v>0.4871514725940479</v>
       </c>
     </row>
     <row r="8719" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>0.3137647847012229</v>
+        <v>0.3137647847012228</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>4.387244141656473</v>
+        <v>4.387244141656472</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>5.24916606635949</v>
+        <v>5.249166066359489</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>0.4062638659235167</v>
+        <v>0.4062638659235166</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70343,7 +70343,7 @@
         <v>8750</v>
       </c>
       <c r="B8750">
-        <v>0.0250038538841584</v>
+        <v>0.0250038538841583</v>
       </c>
     </row>
     <row r="8751" spans="1:2">
